--- a/GE15.xlsx
+++ b/GE15.xlsx
@@ -16,46 +16,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3744" uniqueCount="1210">
   <si>
-    <t>Perlis</t>
-  </si>
-  <si>
-    <t>Kedah</t>
-  </si>
-  <si>
-    <t>Kelantan</t>
-  </si>
-  <si>
-    <t>Terengganu</t>
-  </si>
-  <si>
-    <t>Penang</t>
-  </si>
-  <si>
-    <t>Perak</t>
-  </si>
-  <si>
-    <t>Pahang</t>
-  </si>
-  <si>
-    <t>Selangor</t>
-  </si>
-  <si>
-    <t>Federal Territories</t>
-  </si>
-  <si>
-    <t>Negri Sembilan</t>
-  </si>
-  <si>
-    <t>Melaka</t>
-  </si>
-  <si>
-    <t>Johor</t>
-  </si>
-  <si>
-    <t>Sabah</t>
-  </si>
-  <si>
-    <t>Sarawak</t>
+    <t>PERLIS</t>
+  </si>
+  <si>
+    <t>KEDAH</t>
+  </si>
+  <si>
+    <t>KELANTAN</t>
+  </si>
+  <si>
+    <t>TERENGGANU</t>
+  </si>
+  <si>
+    <t>PENANG</t>
+  </si>
+  <si>
+    <t>PERAK</t>
+  </si>
+  <si>
+    <t>PAHANG</t>
+  </si>
+  <si>
+    <t>SELANGOR</t>
+  </si>
+  <si>
+    <t>FEDERAL TERRITORIES</t>
+  </si>
+  <si>
+    <t>NEGRI SEMBILAN</t>
+  </si>
+  <si>
+    <t>MELAKA</t>
+  </si>
+  <si>
+    <t>JOHOR</t>
+  </si>
+  <si>
+    <t>SABAH</t>
+  </si>
+  <si>
+    <t>SARAWAK</t>
   </si>
   <si>
     <t>P1</t>
@@ -718,2812 +718,2812 @@
     <t>P222</t>
   </si>
   <si>
-    <t>Rushdan Rusmi</t>
-  </si>
-  <si>
-    <t>Zahida Zarik Khan</t>
-  </si>
-  <si>
-    <t>Mohamad Saad@Yahaya</t>
-  </si>
-  <si>
-    <t>Zahidi Zainul Abidin</t>
-  </si>
-  <si>
-    <t>Ko Chu Liang</t>
-  </si>
-  <si>
-    <t>Zakri Hassan</t>
-  </si>
-  <si>
-    <t>Fathul Bari Mat Jahya</t>
-  </si>
-  <si>
-    <t>Noor Amin Ahmad</t>
-  </si>
-  <si>
-    <t>Nur Sulaiman Zolkapli</t>
-  </si>
-  <si>
-    <t>Rohimi Shapiee</t>
-  </si>
-  <si>
-    <t>Shahidan Kassim</t>
-  </si>
-  <si>
-    <t>Rozabil Abd Rahman @ Tok Ben</t>
-  </si>
-  <si>
-    <t>Fathin Amelina Fazlie</t>
-  </si>
-  <si>
-    <t>Mohd Suhaimi Abdullah</t>
-  </si>
-  <si>
-    <t>Armishah Siraj (Das)</t>
-  </si>
-  <si>
-    <t>Zabidi Yahya</t>
-  </si>
-  <si>
-    <t>Mahathir Mohamad</t>
-  </si>
-  <si>
-    <t>Abd Kadir Sainuddin</t>
-  </si>
-  <si>
-    <t>Abd Ghani Ahmad</t>
-  </si>
-  <si>
-    <t>Othman Aziz</t>
-  </si>
-  <si>
-    <t>Mohamed Fadzil Mohd Ali</t>
-  </si>
-  <si>
-    <t>Mukhriz Mahathir</t>
-  </si>
-  <si>
-    <t>Ku Abd Rahman Ku Ismail</t>
-  </si>
-  <si>
-    <t>Mohd Aizuddin Ariffin</t>
-  </si>
-  <si>
-    <t>Hasmuni Hassan (Tok Muni)</t>
-  </si>
-  <si>
-    <t>Amiruddin Hamzah (Tok Met)</t>
-  </si>
-  <si>
-    <t>Nurul Amin Hamid</t>
-  </si>
-  <si>
-    <t>Mahdzir Khalid</t>
-  </si>
-  <si>
-    <t>Muaz Abdullah</t>
-  </si>
-  <si>
-    <t>Razali Lebai Salleh</t>
-  </si>
-  <si>
-    <t>Ahmad Saad @ Yahaya</t>
-  </si>
-  <si>
-    <t>Mahfuz Omar</t>
-  </si>
-  <si>
-    <t>Noran Zamini Jamaluddin</t>
-  </si>
-  <si>
-    <t>Noraini Md Salleh</t>
-  </si>
-  <si>
-    <t>Afnan Hamimi Taib Azamudden</t>
-  </si>
-  <si>
-    <t>Simon Ooi Tze Min</t>
-  </si>
-  <si>
-    <t>Tan Chee Hiong</t>
-  </si>
-  <si>
-    <t>Mohamad Nuhairi Rahmat</t>
-  </si>
-  <si>
-    <t>Fadzil Hanafi</t>
-  </si>
-  <si>
-    <t>Sofan Feroza Md Yusup</t>
-  </si>
-  <si>
-    <t>Nordin Yunus</t>
-  </si>
-  <si>
-    <t>Ahmad Fakhruddin Fakhrurazi</t>
-  </si>
-  <si>
-    <t>Azman Ismail</t>
-  </si>
-  <si>
-    <t>Mashitah Ibrahim</t>
-  </si>
-  <si>
-    <t>Ulya Uqamah Husamudin</t>
-  </si>
-  <si>
-    <t>Syed Araniri Syed Ahmad (Pak Tuan)</t>
-  </si>
-  <si>
-    <t>Awang Solahudin</t>
-  </si>
-  <si>
-    <t>Suraya Yaacob</t>
-  </si>
-  <si>
-    <t>Zulkifly Mohamad (Zul)</t>
-  </si>
-  <si>
-    <t>Abdul Rashid Yob</t>
-  </si>
-  <si>
-    <t>Sabri Azit</t>
-  </si>
-  <si>
-    <t>Jamil Khir Baharom</t>
-  </si>
-  <si>
-    <t>Zulhazmi Shariff</t>
-  </si>
-  <si>
-    <t>Nizam Mahshar</t>
-  </si>
-  <si>
-    <t>Ahmad Tarmizi Sulaiman</t>
-  </si>
-  <si>
-    <t>Maizatul Akmam Othman @ Ibrahim (Maiza)</t>
-  </si>
-  <si>
-    <t>Latipah Md Yatim (Latifah)</t>
-  </si>
-  <si>
-    <t>Mohd Nazri Abu Hassan</t>
-  </si>
-  <si>
-    <t>Nor Azrina Surip (Nurin Aina)</t>
-  </si>
-  <si>
-    <t>Shaiful Hazizy Zainol Abidin</t>
-  </si>
-  <si>
-    <t>Mohamed Mosin Abdul Razak</t>
-  </si>
-  <si>
-    <t>Khairul Anuar Ahmad</t>
-  </si>
-  <si>
-    <t>Mohammed Taufiq Johari</t>
-  </si>
-  <si>
-    <t>Robert Ling Kui Ee</t>
-  </si>
-  <si>
-    <t>Shahanim Mohamad Yusoff</t>
-  </si>
-  <si>
-    <t>Marzuki Yahya</t>
-  </si>
-  <si>
-    <t>Tan Joon Long @ Tan Chow Kang</t>
-  </si>
-  <si>
-    <t>Hassan Saad</t>
-  </si>
-  <si>
-    <t>Abdul Azeez Abdul Rahim</t>
-  </si>
-  <si>
-    <t>Johari Abdullah</t>
-  </si>
-  <si>
-    <t>Basir Ab Rahman</t>
-  </si>
-  <si>
-    <t>Roslan Hashim</t>
-  </si>
-  <si>
-    <t>Saifuddin Nasution Ismail</t>
-  </si>
-  <si>
-    <t>Muhar Hussain</t>
-  </si>
-  <si>
-    <t>Mohd Yusrizal Yusoff (Rizal)</t>
-  </si>
-  <si>
-    <t>Mumtaz Md. Nawi (Kak Taz)</t>
-  </si>
-  <si>
-    <t>Che Muhammad Aswari Che Ali (Che Lah)</t>
-  </si>
-  <si>
-    <t>Wan Johari Wan Omar (Haji Wan Jo)</t>
-  </si>
-  <si>
-    <t>Che Muhammad Aswari Che Ali (Asri Ali)</t>
-  </si>
-  <si>
-    <t>Khairul Azuan</t>
-  </si>
-  <si>
-    <t>Ahmad Marzuk Shaary</t>
-  </si>
-  <si>
-    <t>Mohd Hafiezulniezam Mohd Hasdin (Hafiz)</t>
-  </si>
-  <si>
-    <t>Nik Faizah Nik Othman (Kak Jah)</t>
-  </si>
-  <si>
-    <t>Abe Wea Redzuan</t>
-  </si>
-  <si>
-    <t>Wan Ahmad Nasri Wan Ismail</t>
-  </si>
-  <si>
-    <t>Takiyuddin Hassan</t>
-  </si>
-  <si>
-    <t>Hafidzah Mustakim</t>
-  </si>
-  <si>
-    <t>Rosmadi Ismail</t>
-  </si>
-  <si>
-    <t>Che Musa Che Omar</t>
-  </si>
-  <si>
-    <t>Andy Tan</t>
-  </si>
-  <si>
-    <t>Izat Bukhary</t>
-  </si>
-  <si>
-    <t>Ahmad Fadhli Shaary (Ustaz Fadhli Shaari)</t>
-  </si>
-  <si>
-    <t>Ab. Ghani Harun</t>
-  </si>
-  <si>
-    <t>Husam Musa</t>
-  </si>
-  <si>
-    <t>Nasrul Ali Hasan Abdul Latif</t>
-  </si>
-  <si>
-    <t>Siti Zailah Mohd. Yusoff (Kak Lah)</t>
-  </si>
-  <si>
-    <t>Zulkarnain Yusoff (Ust Zul)</t>
-  </si>
-  <si>
-    <t>Wan Shah Jihan Wan Din</t>
-  </si>
-  <si>
-    <t>Ibrahim Ali</t>
-  </si>
-  <si>
-    <t>Zain</t>
-  </si>
-  <si>
-    <t>Tuan Ibrahim Tuan Man</t>
-  </si>
-  <si>
-    <t>Nurul Amal Mohd Fauzi (Kak Long)</t>
-  </si>
-  <si>
-    <t>Wan Ahmad Kamil Wan Abdullah</t>
-  </si>
-  <si>
-    <t>Mohamad Rizal Razali</t>
-  </si>
-  <si>
-    <t>Mohd Syahir Che Sulaiman</t>
-  </si>
-  <si>
-    <t>Haji Zain</t>
-  </si>
-  <si>
-    <t>Nor Azmiza Mamat</t>
-  </si>
-  <si>
-    <t>Haji Zu</t>
-  </si>
-  <si>
-    <t>Kamarul Azam Osman (Cikgu Zam)</t>
-  </si>
-  <si>
-    <t>Khilir Mohd Nor</t>
-  </si>
-  <si>
-    <t>Marzuani Ardila Ariffin (Gee)</t>
-  </si>
-  <si>
-    <t>Rahimi L. Muhamud</t>
-  </si>
-  <si>
-    <t>Hanif Ibrahim (Abe Haneef)</t>
-  </si>
-  <si>
-    <t>Ikmal Hisyam Abdul Aziz</t>
-  </si>
-  <si>
-    <t>Mohd Bakri Mustapha</t>
-  </si>
-  <si>
-    <t>Mohamad Suparadi Md. Noor</t>
-  </si>
-  <si>
-    <t>Mohd Nasir Abdullah</t>
-  </si>
-  <si>
-    <t>Nik Sapeia</t>
-  </si>
-  <si>
-    <t>Nik Muhd Zawawi Salleh</t>
-  </si>
-  <si>
-    <t>Zawawi Othman (Cikgu Awi)</t>
-  </si>
-  <si>
-    <t>Muhammad Husain</t>
-  </si>
-  <si>
-    <t>Wan Marzudi Wan Omar</t>
-  </si>
-  <si>
-    <t>Wan Ahmad Fasyhal Wan Kamal</t>
-  </si>
-  <si>
-    <t>Ahmad Jazlan Yaakub</t>
-  </si>
-  <si>
-    <t>Rosli Allani Abdul Kadir</t>
-  </si>
-  <si>
-    <t>Muhammad Seman</t>
-  </si>
-  <si>
-    <t>Zahari Kechik (Pok Zahari)</t>
-  </si>
-  <si>
-    <t>Norwahida Patuan</t>
-  </si>
-  <si>
-    <t>Md Radzi Wahabd</t>
-  </si>
-  <si>
-    <t>Muhammad Daud (Mat)</t>
-  </si>
-  <si>
-    <t>Abdul Latiff Abdul Rahman</t>
-  </si>
-  <si>
-    <t>Mohamed Zulkepli Omar (Zuki)</t>
-  </si>
-  <si>
-    <t>Mohd Hisyamuddin Ghazali (Syam Ghaz)</t>
-  </si>
-  <si>
-    <t>Norashikin Che Omar</t>
-  </si>
-  <si>
-    <t>Mohd. Azizi Abu Naim</t>
-  </si>
-  <si>
-    <t>Tengku Razaleigh Hamzah</t>
-  </si>
-  <si>
-    <t>Asharun Uji (Abe Yo)</t>
-  </si>
-  <si>
-    <t>Samsu Adabi Mamat</t>
-  </si>
-  <si>
-    <t>Che Mohamad Zulkifly Jusoh (Abe Zul)</t>
-  </si>
-  <si>
-    <t>Nawi Mohamad</t>
-  </si>
-  <si>
-    <t>Abd. Rahman @ Abd. Aziz Abas</t>
-  </si>
-  <si>
-    <t>Wan Nazari Wan Jusoh</t>
-  </si>
-  <si>
-    <t>Shaharizukirnain Abdul Kadir</t>
-  </si>
-  <si>
-    <t>Abdul Rahman Mat Yasin</t>
-  </si>
-  <si>
-    <t>Mohamad Ngah</t>
-  </si>
-  <si>
-    <t>Wan Adnan Wan Ali</t>
-  </si>
-  <si>
-    <t>Alias Razak</t>
-  </si>
-  <si>
-    <t>Mohd Khairuddin Aman Razali</t>
-  </si>
-  <si>
-    <t>Suhaimi Hashim</t>
-  </si>
-  <si>
-    <t>Azaha Wahid</t>
-  </si>
-  <si>
-    <t>Ahmad Amzad Mohamed @ Hashim</t>
-  </si>
-  <si>
-    <t>Mohd Zubir Embong</t>
-  </si>
-  <si>
-    <t>Raja Kamarul Bahrin Shah Raja Ahmad Shah</t>
-  </si>
-  <si>
-    <t>Mohamad Abu Bakar Muda</t>
-  </si>
-  <si>
-    <t>Abdul Hadi Awang</t>
-  </si>
-  <si>
-    <t>Jasmira Othman</t>
-  </si>
-  <si>
-    <t>Azhar Ab Shukur</t>
-  </si>
-  <si>
-    <t>Zarawi Sulong</t>
-  </si>
-  <si>
-    <t>Rosol Wahid</t>
-  </si>
-  <si>
-    <t>Rozi Mamat</t>
-  </si>
-  <si>
-    <t>Alias Ismail</t>
-  </si>
-  <si>
-    <t>Mohd. Khadri Abdullah</t>
-  </si>
-  <si>
-    <t>Wan Hassan Mohd. Ramli</t>
-  </si>
-  <si>
-    <t>Nurhisam Johari (Ustaz Sham)</t>
-  </si>
-  <si>
-    <t>Mohd Johari Mohamad</t>
-  </si>
-  <si>
-    <t>Noraisah Hasan</t>
-  </si>
-  <si>
-    <t>Ghazali Ismail</t>
-  </si>
-  <si>
-    <t>Che Alias Hamid</t>
-  </si>
-  <si>
-    <t>Ahmad Said</t>
-  </si>
-  <si>
-    <t>Hasuni Sudin</t>
-  </si>
-  <si>
-    <t>Rosli Ab. Ghani</t>
-  </si>
-  <si>
-    <t>Mastura Muhammad</t>
-  </si>
-  <si>
-    <t>Reezal Merican Naina Merican</t>
-  </si>
-  <si>
-    <t>Danial Abdul Majeed</t>
-  </si>
-  <si>
-    <t>Hamidi Abu Hassan</t>
-  </si>
-  <si>
-    <t>Wan Saifulrudin Wan Jan</t>
-  </si>
-  <si>
-    <t>Muhammad Yusoff Mohd Noor (Chop)</t>
-  </si>
-  <si>
-    <t>Nik Abdul Razak Nik Md Ridzuan</t>
-  </si>
-  <si>
-    <t>Abdul Halim Sher Jung</t>
-  </si>
-  <si>
-    <t>Mohamed Akmal Azhar</t>
-  </si>
-  <si>
-    <t>Lim Guan Eng</t>
-  </si>
-  <si>
-    <t>Alan Oh Teik Choon</t>
-  </si>
-  <si>
-    <t>Tan Chuan Hong</t>
-  </si>
-  <si>
-    <t>Mohammed Hafiz Mohamed Abu Bakar</t>
-  </si>
-  <si>
-    <t>Muhammad Fawwaz Mat Jan</t>
-  </si>
-  <si>
-    <t>Nurul Izzah Anwar</t>
-  </si>
-  <si>
-    <t>Mohd Zaidi Mohd Said</t>
-  </si>
-  <si>
-    <t>Mohd Nasir Othman</t>
-  </si>
-  <si>
-    <t>Steven Sim Chee Keong</t>
-  </si>
-  <si>
-    <t>Steven Koh Tien Yew</t>
-  </si>
-  <si>
-    <t>Tan Yang Pang (Ah Pang)</t>
-  </si>
-  <si>
-    <t>Chow Kon Yeow</t>
-  </si>
-  <si>
-    <t>Wong Chia Zhen</t>
-  </si>
-  <si>
-    <t>Tan Lee Huat</t>
-  </si>
-  <si>
-    <t>Ong Chin Wen</t>
-  </si>
-  <si>
-    <t>Lee Ah Liang (Lee Ah Leong)</t>
-  </si>
-  <si>
-    <t>Fadhlina Sidek</t>
-  </si>
-  <si>
-    <t>Mansor Othman</t>
-  </si>
-  <si>
-    <t>Thanenthiran Ramankutty</t>
-  </si>
-  <si>
-    <t>Goh Kheng Huat</t>
-  </si>
-  <si>
-    <t>Syerleena Abdul Rashid</t>
-  </si>
-  <si>
-    <t>Hng Chee Wey</t>
-  </si>
-  <si>
-    <t>Huan Xin Yun</t>
-  </si>
-  <si>
-    <t>Teh Yee Cheu</t>
-  </si>
-  <si>
-    <t>Razalif Mohd Zain</t>
-  </si>
-  <si>
-    <t>Lim Hui Ying</t>
-  </si>
-  <si>
-    <t>Tan Kim Nee</t>
-  </si>
-  <si>
-    <t>ng Khoon Leng</t>
-  </si>
-  <si>
-    <t>Sanisvara Nethaji Rayer Rajaji</t>
-  </si>
-  <si>
-    <t>Baljit Singh Jigiri Singh</t>
-  </si>
-  <si>
-    <t>Loganathan Thoraisamy</t>
-  </si>
-  <si>
-    <t>Mohamed Yacoob Mohamed Noor</t>
-  </si>
-  <si>
-    <t>Martin Lim Huat Poh</t>
-  </si>
-  <si>
-    <t>Koh Swe Yong</t>
-  </si>
-  <si>
-    <t>Ramkarpal Singh</t>
-  </si>
-  <si>
-    <t>P. Thinagaranabhan</t>
-  </si>
-  <si>
-    <t>Wong Chin Chong</t>
-  </si>
-  <si>
-    <t>Sim Tze Tzin</t>
-  </si>
-  <si>
-    <t>Oh Tong Keong</t>
-  </si>
-  <si>
-    <t>Saw Yee Fung</t>
-  </si>
-  <si>
-    <t>Jeff Ooi Chuan Aun</t>
-  </si>
-  <si>
-    <t>Ravinder Singh</t>
-  </si>
-  <si>
-    <t>Kan Chee Yeun</t>
-  </si>
-  <si>
-    <t>Muhammad Bakhtiar Wan Chik</t>
-  </si>
-  <si>
-    <t>Muhammad Harris Idaham Abdul Rashid</t>
-  </si>
-  <si>
-    <t>Shah Headan Ayoob Hussain Shah</t>
-  </si>
-  <si>
-    <t>Sabaruddin Ahmad</t>
-  </si>
-  <si>
-    <t>Ahmad Fazli Mohammad</t>
-  </si>
-  <si>
-    <t>ng Ewe Gee</t>
-  </si>
-  <si>
-    <t>Fathul Huzir Ayob</t>
-  </si>
-  <si>
-    <t>Asyraf Wajdi Dusuki</t>
-  </si>
-  <si>
-    <t>Tarmizi Mohd Jam</t>
-  </si>
-  <si>
-    <t>Shamsul Anuar Nasarah</t>
-  </si>
-  <si>
-    <t>aat Razman</t>
-  </si>
-  <si>
-    <t>Jurey Latiff Mohd Rosli</t>
-  </si>
-  <si>
-    <t>Hamzah Zainudin</t>
-  </si>
-  <si>
-    <t>Mohd Shafiq Fhadly Mahmud</t>
-  </si>
-  <si>
-    <t>Zolkarnain Abidin</t>
-  </si>
-  <si>
-    <t>Auzaie Fadzlan Shahidi</t>
-  </si>
-  <si>
-    <t>Mohd Misbahul Munir Masduki (Ustaz Misbah)</t>
-  </si>
-  <si>
-    <t>Mujahid Yusof Rawa</t>
-  </si>
-  <si>
-    <t>Imran Mohd Yusof</t>
-  </si>
-  <si>
-    <t>Rohijas Md Sharif</t>
-  </si>
-  <si>
-    <t>Idris Ahmad</t>
-  </si>
-  <si>
-    <t>Zul Helmi Ghazali</t>
-  </si>
-  <si>
-    <t>Siti Aishah Shaik Amin</t>
-  </si>
-  <si>
-    <t>Ahmad Luqman Ahmad Yahaya</t>
-  </si>
-  <si>
-    <t>Syed Abu Hussin Hafiz Syed Abdul Fasal</t>
-  </si>
-  <si>
-    <t>Mohammad Sollehin Mohamad Tajie</t>
-  </si>
-  <si>
-    <t>Fakhruldin Mohd Hashim</t>
-  </si>
-  <si>
-    <t>Mohd Shukri Mohd Yusoff</t>
-  </si>
-  <si>
-    <t>Wong Kah Woh</t>
-  </si>
-  <si>
-    <t>See Tean Seng</t>
-  </si>
-  <si>
-    <t>Neoh Choo Seong (Neow)</t>
-  </si>
-  <si>
-    <t>Leow Thye Yih</t>
-  </si>
-  <si>
-    <t>Mohganan P Manikam</t>
-  </si>
-  <si>
-    <t>Rama</t>
-  </si>
-  <si>
-    <t>Azahari Hasan</t>
-  </si>
-  <si>
-    <t>Mohd Arrif Abdul Majid</t>
-  </si>
-  <si>
-    <t>Muhammad Kamil Abdul Munim</t>
-  </si>
-  <si>
-    <t>Kesavan Subramaniam</t>
-  </si>
-  <si>
-    <t>Vigneswaran Sanasee</t>
-  </si>
-  <si>
-    <t>Irudianathan Gabriel</t>
-  </si>
-  <si>
-    <t>Ahmad Fauzi Mohd Jaafar</t>
-  </si>
-  <si>
-    <t>R. Indrani</t>
-  </si>
-  <si>
-    <t>Baharudin Kamarudin</t>
-  </si>
-  <si>
-    <t>Rajah Narasaim</t>
-  </si>
-  <si>
-    <t>Anwar Ibrahim</t>
-  </si>
-  <si>
-    <t>Ahmad Faizal Azumu</t>
-  </si>
-  <si>
-    <t>Aminudin Md Hanafiah</t>
-  </si>
-  <si>
-    <t>Abdul Rahim Tahir</t>
-  </si>
-  <si>
-    <t>Howard Lee Chuan How</t>
-  </si>
-  <si>
-    <t>Nor Afzainizam Salleh</t>
-  </si>
-  <si>
-    <t>Ng Kai Cheong</t>
-  </si>
-  <si>
-    <t>M. Kulasegaran</t>
-  </si>
-  <si>
-    <t>Low Guo Nan (Ah Nan)</t>
-  </si>
-  <si>
-    <t>Chek Kwong Weng</t>
-  </si>
-  <si>
-    <t>M Kayveas</t>
-  </si>
-  <si>
-    <t>Sivakumar Varatharaju Naidu</t>
-  </si>
-  <si>
-    <t>Woo Cheong Yuen</t>
-  </si>
-  <si>
-    <t>Teoh Chin Chong</t>
-  </si>
-  <si>
-    <t>Iskandar Dzulkarnain Abdul Khalid</t>
-  </si>
-  <si>
-    <t>Maslin Sham Razman</t>
-  </si>
-  <si>
-    <t>Ahmad Termizi Ramli</t>
-  </si>
-  <si>
-    <t>Yusmalia Mohamad Yusof</t>
-  </si>
-  <si>
-    <t>Ngeh Koo Ham</t>
-  </si>
-  <si>
-    <t>Ong Kean Sing</t>
-  </si>
-  <si>
-    <t>Ding Siew Chee</t>
-  </si>
-  <si>
-    <t>Muhammad Ismi Mat Taib</t>
-  </si>
-  <si>
-    <t>Mohd Nizar Zakaria</t>
-  </si>
-  <si>
-    <t>Nurthaqaffah Nordin</t>
-  </si>
-  <si>
-    <t>Faizol Fadzli Mohamed</t>
-  </si>
-  <si>
-    <t>Chong Zhemin</t>
-  </si>
-  <si>
-    <t>Lee Chee Leong</t>
-  </si>
-  <si>
-    <t>Janice Wong Oi Foon</t>
-  </si>
-  <si>
-    <t>Leong Chuk Lung</t>
-  </si>
-  <si>
-    <t>Tan Kar Hing</t>
-  </si>
-  <si>
-    <t>Muhammad Farhan Abdul Rahim</t>
-  </si>
-  <si>
-    <t>Cally Ting Zhao Song</t>
-  </si>
-  <si>
-    <t>Balachandran Gopal</t>
-  </si>
-  <si>
-    <t>Saravanan Murugan</t>
-  </si>
-  <si>
-    <t>Saraswathy Kandasami</t>
-  </si>
-  <si>
-    <t>Muhammad Yadzan Mohammad</t>
-  </si>
-  <si>
-    <t>Mior Nor Haidir Suhaimi</t>
-  </si>
-  <si>
-    <t>Mohamed Akbar Yasin</t>
-  </si>
-  <si>
-    <t>M.Kathiravan</t>
-  </si>
-  <si>
-    <t>Jamaluddin Yahya</t>
-  </si>
-  <si>
-    <t>Khairul Azwan Harun</t>
-  </si>
-  <si>
-    <t>Nik Omar Nik Abdul Aziz</t>
-  </si>
-  <si>
-    <t>Zairol Hizam Zakaria</t>
-  </si>
-  <si>
-    <t>Nordin Ahmad Ismail</t>
-  </si>
-  <si>
-    <t>Zambry Abd Kadir</t>
-  </si>
-  <si>
-    <t>Mohd Hatta Md Ramli</t>
-  </si>
-  <si>
-    <t>Mazlan Abd Ghani</t>
-  </si>
-  <si>
-    <t>Mohd Isnin Mohd Ismail @ Ibrahim Khan</t>
-  </si>
-  <si>
-    <t>Ahmad Zahid Hamidi</t>
-  </si>
-  <si>
-    <t>Shamsul Iskandar Mohd Akin</t>
-  </si>
-  <si>
-    <t>aman</t>
-  </si>
-  <si>
-    <t>Tawfik Ismail</t>
-  </si>
-  <si>
-    <t>Nga Kor Ming</t>
-  </si>
-  <si>
-    <t>Zainol Fadzi Paharudin</t>
-  </si>
-  <si>
-    <t>Murugiah Thopasamy</t>
-  </si>
-  <si>
-    <t>Amir Khusyairi Mohamad Tanusi</t>
-  </si>
-  <si>
-    <t>Chang Lih Kang</t>
-  </si>
-  <si>
-    <t>Nolee Radzi</t>
-  </si>
-  <si>
-    <t>Dr Mah Hang Soon</t>
-  </si>
-  <si>
-    <t>Datuk Jamaluddin Bin Mohd. Radzi</t>
-  </si>
-  <si>
-    <t>Dr Amir Hamzah</t>
-  </si>
-  <si>
-    <t>Mohd Nor Izzat Mohd Johari</t>
-  </si>
-  <si>
-    <t>Ramli Mohd Nor</t>
-  </si>
-  <si>
-    <t>Chiong Yoke Kong</t>
-  </si>
-  <si>
-    <t>Abdul Rasid</t>
-  </si>
-  <si>
-    <t>Abdul Rahman Mohamad</t>
-  </si>
-  <si>
-    <t>Mohamad Shahrum Osman</t>
-  </si>
-  <si>
-    <t>Tengku Zulpuri Shah Raja Puji</t>
-  </si>
-  <si>
-    <t>Aishaton Abu Bakar</t>
-  </si>
-  <si>
-    <t>Chow Yu Hui</t>
-  </si>
-  <si>
-    <t>Fakrunizam Ibrahim</t>
-  </si>
-  <si>
-    <t>Chong Sin Woon</t>
-  </si>
-  <si>
-    <t>Norkhairul Anuar Mohamed Nor</t>
-  </si>
-  <si>
-    <t>Khairil Nizam Khirudin</t>
-  </si>
-  <si>
-    <t>Mohd Zukarmi Abu Bakar</t>
-  </si>
-  <si>
-    <t>Hassan Basri Awang Mat Dahan</t>
-  </si>
-  <si>
-    <t>Saifuddin Abdullah</t>
-  </si>
-  <si>
-    <t>Zuraidi Ismail</t>
-  </si>
-  <si>
-    <t>Quek Tai Seong</t>
-  </si>
-  <si>
-    <t>Mohamad Nor Sundari</t>
-  </si>
-  <si>
-    <t>Wan Razali Wan Nor</t>
-  </si>
-  <si>
-    <t>Fuziah Salleh</t>
-  </si>
-  <si>
-    <t>Ab Hamid Mohd Nazahar</t>
-  </si>
-  <si>
-    <t>Anuar Tajuddin</t>
-  </si>
-  <si>
-    <t>Indera Mohd Shahar Abdullah</t>
-  </si>
-  <si>
-    <t>Aireroshairi Roslan</t>
-  </si>
-  <si>
-    <t>Ahmad Azam Mohd Salleh</t>
-  </si>
-  <si>
-    <t>Rosminahar Mohd Amin</t>
-  </si>
-  <si>
-    <t>Sh Mohmed Puzi Sh Ali</t>
-  </si>
-  <si>
-    <t>Mohd Fadhil Noor</t>
-  </si>
-  <si>
-    <t>Mohd Naim Zainal Abidin</t>
-  </si>
-  <si>
-    <t>Mohammad Radhi Abdul Razak</t>
-  </si>
-  <si>
-    <t>Zainul Hisham Tengku Hussin</t>
-  </si>
-  <si>
-    <t>Ismail Abd Muttalib</t>
-  </si>
-  <si>
-    <t>Shahaniza Shamsuddin</t>
-  </si>
-  <si>
-    <t>Ahmad Shuhor</t>
-  </si>
-  <si>
-    <t>Hafiz</t>
-  </si>
-  <si>
-    <t>Kamal Ashaari</t>
-  </si>
-  <si>
-    <t>Ismail Mohamed Said</t>
-  </si>
-  <si>
-    <t>Juhari Osman</t>
-  </si>
-  <si>
-    <t>Shahruddin Mohamed Salleh</t>
-  </si>
-  <si>
-    <t>Salamiah Mohd Nor</t>
-  </si>
-  <si>
-    <t>Hasbie Muda</t>
-  </si>
-  <si>
-    <t>Mohd Sharkar</t>
-  </si>
-  <si>
-    <t>Aminuddin Yahaya</t>
-  </si>
-  <si>
-    <t>Young Syefura Othman</t>
-  </si>
-  <si>
-    <t>Liow Tiong Lai</t>
-  </si>
-  <si>
-    <t>Roslan Hassan</t>
-  </si>
-  <si>
-    <t>Wong Tack</t>
-  </si>
-  <si>
-    <t>Mohd Khalil Abdul Hamid (Achik Khalil)</t>
-  </si>
-  <si>
-    <t>Ismail Sabri Yaakob</t>
-  </si>
-  <si>
-    <t>Abas Awang</t>
-  </si>
-  <si>
-    <t>Asmawi</t>
-  </si>
-  <si>
-    <t>Khalib</t>
-  </si>
-  <si>
-    <t>Hasan Arifin</t>
-  </si>
-  <si>
-    <t>Erman Shah</t>
-  </si>
-  <si>
-    <t>Hamizi Hussain</t>
-  </si>
-  <si>
-    <t>Kalam Salan</t>
-  </si>
-  <si>
-    <t>Abd Rahman Bakri</t>
-  </si>
-  <si>
-    <t>arif Ismail</t>
-  </si>
-  <si>
-    <t>Eizlan Yusof</t>
-  </si>
-  <si>
-    <t>Muslimin Yahaya</t>
-  </si>
-  <si>
-    <t>Saipolyzan Mat Yusop</t>
-  </si>
-  <si>
-    <t>Jamal Yunos</t>
-  </si>
-  <si>
-    <t>Asmawar Samat @ Samad</t>
-  </si>
-  <si>
-    <t>Mohd Hasnizan Harun</t>
-  </si>
-  <si>
-    <t>Sathia Prakash Nadarajan</t>
-  </si>
-  <si>
-    <t>Mohan Thangarasu</t>
-  </si>
-  <si>
-    <t>Harumaini Omar</t>
-  </si>
-  <si>
-    <t>Haniza Mohamed Talha</t>
-  </si>
-  <si>
-    <t>Azlinda Baroni</t>
-  </si>
-  <si>
-    <t>Zulkafpheri Hanafi</t>
-  </si>
-  <si>
-    <t>Habibah Mohd Yusof</t>
-  </si>
-  <si>
-    <t>Siti Rahayu Baharin</t>
-  </si>
-  <si>
-    <t>Azlan Sani Zawawi (Lando Brotherhood)</t>
-  </si>
-  <si>
-    <t>Mohd Rosni Mastol</t>
-  </si>
-  <si>
-    <t>Dzulkefly Ahmad</t>
-  </si>
-  <si>
-    <t>Tengku Zafrul Tengku Abdul Aziz</t>
-  </si>
-  <si>
-    <t>Mohd Noor Mohd Sahar</t>
-  </si>
-  <si>
-    <t>Mohd Shaid Rosli</t>
-  </si>
-  <si>
-    <t>William Leong Jee Keen</t>
-  </si>
-  <si>
-    <t>Abdul Rashid Asari</t>
-  </si>
-  <si>
-    <t>Chan Wun Hoong</t>
-  </si>
-  <si>
-    <t>Salleh Amiruddin</t>
-  </si>
-  <si>
-    <t>Muhammad Zaki Omar</t>
-  </si>
-  <si>
-    <t>Amirudin Shari</t>
-  </si>
-  <si>
-    <t>Azmin Ali</t>
-  </si>
-  <si>
-    <t>Megat Zulkarnain Omardin</t>
-  </si>
-  <si>
-    <t>Aziz Jamaludin</t>
-  </si>
-  <si>
-    <t>Zulkifli Ahmad</t>
-  </si>
-  <si>
-    <t>Rodziah Ismail</t>
-  </si>
-  <si>
-    <t>Sasha Lyna Abdul Latif</t>
-  </si>
-  <si>
-    <t>Ivone Low Yi Wen</t>
-  </si>
-  <si>
-    <t>Zuraida Kamaruddin</t>
-  </si>
-  <si>
-    <t>Nurul Ashikin Mabahwi</t>
-  </si>
-  <si>
-    <t>Bryan Lai Wai Chong</t>
-  </si>
-  <si>
-    <t>Muhammad Shafiq Izwan Mohd Yunos</t>
-  </si>
-  <si>
-    <t>Raveendran Marnokaran</t>
-  </si>
-  <si>
-    <t>Tan Hua Meng</t>
-  </si>
-  <si>
-    <t>Rafizi Ramli</t>
-  </si>
-  <si>
-    <t>Muhammad Rafique Zubir Albakri</t>
-  </si>
-  <si>
-    <t>Leong Kok Wee</t>
-  </si>
-  <si>
-    <t>Ong Tee Keat</t>
-  </si>
-  <si>
-    <t>Nadia Hanafiah</t>
-  </si>
-  <si>
-    <t>Mohd Sany Hamzan</t>
-  </si>
-  <si>
-    <t>Mohd Radzi Abd Latiff</t>
-  </si>
-  <si>
-    <t>Johan Abd Aziz</t>
-  </si>
-  <si>
-    <t>Markiman Kobiran</t>
-  </si>
-  <si>
-    <t>Abdul Rahman Jaafar</t>
-  </si>
-  <si>
-    <t>Mohamed Mustafa</t>
-  </si>
-  <si>
-    <t>Syahredzan Johan</t>
-  </si>
-  <si>
-    <t>Muhammad Nazrul Md Nazir</t>
-  </si>
-  <si>
-    <t>Hoh Hee Lee</t>
-  </si>
-  <si>
-    <t>Annuar Salleh</t>
-  </si>
-  <si>
-    <t>Chee Chee Meng</t>
-  </si>
-  <si>
-    <t>Jamal Hisham Hashim</t>
-  </si>
-  <si>
-    <t>Muhammad Fauzi Hasim</t>
-  </si>
-  <si>
-    <t>Suthan Mookaiah</t>
-  </si>
-  <si>
-    <t>Yeo Bee Yin</t>
-  </si>
-  <si>
-    <t>Syed Ibrahim Syed Abu Kader</t>
-  </si>
-  <si>
-    <t>Jimmy Chew Jyh Gang</t>
-  </si>
-  <si>
-    <t>Kuan Chee Heng (Uncle Kentang)</t>
-  </si>
-  <si>
-    <t>Wong Chen</t>
-  </si>
-  <si>
-    <t>Alex Ang Hiang Ni</t>
-  </si>
-  <si>
-    <t>Kow Cheong Wei</t>
-  </si>
-  <si>
-    <t>Lee Chean Chung</t>
-  </si>
-  <si>
-    <t>Theng Book</t>
-  </si>
-  <si>
-    <t>Chew Hian Tat</t>
-  </si>
-  <si>
-    <t>Mazween Mokhtar</t>
-  </si>
-  <si>
-    <t>Ezam Mohd Nor</t>
-  </si>
-  <si>
-    <t>K. J. John</t>
-  </si>
-  <si>
-    <t>Gobind Singh Deo</t>
-  </si>
-  <si>
-    <t>Lim Si Ching</t>
-  </si>
-  <si>
-    <t>Tan Gim Tuan</t>
-  </si>
-  <si>
-    <t>Ramanan Ramakrishnan</t>
-  </si>
-  <si>
-    <t>Khairy Jamaluddin Abu Bakar</t>
-  </si>
-  <si>
-    <t>Mohd Ghazali Md Hamin</t>
-  </si>
-  <si>
-    <t>Mohd Akmal Mohd Yusoff</t>
-  </si>
-  <si>
-    <t>Ahmad Jufliz Faiza</t>
-  </si>
-  <si>
-    <t>Syed Abdul Razak Syed Long Alsagoff</t>
-  </si>
-  <si>
-    <t>Nurhaslinda Basri (Sifu Linda)</t>
-  </si>
-  <si>
-    <t>Azli Yusof</t>
-  </si>
-  <si>
-    <t>Afif Bahardin</t>
-  </si>
-  <si>
-    <t>Isham Jalil</t>
-  </si>
-  <si>
-    <t>Rafique Rashid</t>
-  </si>
-  <si>
-    <t>Halimah Ali</t>
-  </si>
-  <si>
-    <t>Abdullah Sani Abdul Hamid</t>
-  </si>
-  <si>
-    <t>Muhammad Noor Azman</t>
-  </si>
-  <si>
-    <t>Daroyah Alwi</t>
-  </si>
-  <si>
-    <t>Mohd Pathan Hussin</t>
-  </si>
-  <si>
-    <t>Sivalingam</t>
-  </si>
-  <si>
-    <t>Rahim Awang</t>
-  </si>
-  <si>
-    <t>Ganabatirau Veraman</t>
-  </si>
-  <si>
-    <t>P. Jaya Chandran</t>
-  </si>
-  <si>
-    <t>Tee Hooi Ling</t>
-  </si>
-  <si>
-    <t>Hedrin Ramli @ Awin</t>
-  </si>
-  <si>
-    <t>Loo Cheng Wee</t>
-  </si>
-  <si>
-    <t>Deepak Jaikishan</t>
-  </si>
-  <si>
-    <t>S. Chandrasegar</t>
-  </si>
-  <si>
-    <t>Mohamad Sabu</t>
-  </si>
-  <si>
-    <t>Mohamed Diah Bahrun</t>
-  </si>
-  <si>
-    <t>D. Kajendran</t>
-  </si>
-  <si>
-    <t>Fahmi Razlan</t>
-  </si>
-  <si>
-    <t>Sarah Afiqah Zainol Arif</t>
-  </si>
-  <si>
-    <t>P. Raveentharan</t>
-  </si>
-  <si>
-    <t>Kumar Karananedi</t>
-  </si>
-  <si>
-    <t>S. Surendhar</t>
-  </si>
-  <si>
-    <t>Ahmad Yunus Hairi</t>
-  </si>
-  <si>
-    <t>Manivanan Gowin</t>
-  </si>
-  <si>
-    <t>Mohana Muniandy</t>
-  </si>
-  <si>
-    <t>Mohd Ridzuan Abdullah</t>
-  </si>
-  <si>
-    <t>Zanariah Jumhuri</t>
-  </si>
-  <si>
-    <t>Ganeskumar</t>
-  </si>
-  <si>
-    <t>Raj Munni Sabu (Aiman Athirah)</t>
-  </si>
-  <si>
-    <t>Rina Mohd Harun</t>
-  </si>
-  <si>
-    <t>Anuar Basiran</t>
-  </si>
-  <si>
-    <t>Che Asmah Ibrahim</t>
-  </si>
-  <si>
-    <t>Mohd Syahrul Amri Mat Sari</t>
-  </si>
-  <si>
-    <t>Mohd Daud Leong Abdullah</t>
-  </si>
-  <si>
-    <t>Muneswaran Muthiah</t>
-  </si>
-  <si>
-    <t>Nageswaran Ravi</t>
-  </si>
-  <si>
-    <t>Lim Lip Eng</t>
-  </si>
-  <si>
-    <t>Yap Zheng Hoe</t>
-  </si>
-  <si>
-    <t>Phaang Jing Fat</t>
-  </si>
-  <si>
-    <t>Yee Poh Ping</t>
-  </si>
-  <si>
-    <t>Shaun Young</t>
-  </si>
-  <si>
-    <t>Prabakaran Parameswaran</t>
-  </si>
-  <si>
-    <t>Azhar Yahya</t>
-  </si>
-  <si>
-    <t>A Kohilan Pillay</t>
-  </si>
-  <si>
-    <t>Tian Chua</t>
-  </si>
-  <si>
-    <t>Wan Azliana</t>
-  </si>
-  <si>
-    <t>Siti Kasim</t>
-  </si>
-  <si>
-    <t>Nur Fathiah Syazwana @ Cleo</t>
-  </si>
-  <si>
-    <t>Nathan Batu</t>
-  </si>
-  <si>
-    <t>Zulkifli Fattah</t>
-  </si>
-  <si>
-    <t>Too Gao Lan</t>
-  </si>
-  <si>
-    <t>Zahir Hassan</t>
-  </si>
-  <si>
-    <t>Nuridah Mohd Salleh</t>
-  </si>
-  <si>
-    <t>Shafei Abdullah</t>
-  </si>
-  <si>
-    <t>Norzaila Arifin</t>
-  </si>
-  <si>
-    <t>Wee Choo Keong</t>
-  </si>
-  <si>
-    <t>Ravee Suntheralingam</t>
-  </si>
-  <si>
-    <t>Hannah Yeoh</t>
-  </si>
-  <si>
-    <t>Prabagaran Vythilingam</t>
-  </si>
-  <si>
-    <t>Daniel Ling Sia Chin</t>
-  </si>
-  <si>
-    <t>Nik Nazmi Nik Ahmad</t>
-  </si>
-  <si>
-    <t>Nurul Fadzilah Kamaluddin</t>
-  </si>
-  <si>
-    <t>Izudin Ishak</t>
-  </si>
-  <si>
-    <t>Bibi Sunita Sakandar Khan</t>
-  </si>
-  <si>
-    <t>Mior Rosli</t>
-  </si>
-  <si>
-    <t>Stanley Lim Yen Tiong</t>
-  </si>
-  <si>
-    <t>Johari Abdul Ghani</t>
-  </si>
-  <si>
-    <t>Khalid Abdul Samad</t>
-  </si>
-  <si>
-    <t>Rosni Adam</t>
-  </si>
-  <si>
-    <t>Khairuddin Abu Hassan</t>
-  </si>
-  <si>
-    <t>Fong Kui Lun</t>
-  </si>
-  <si>
-    <t>Tan Teik Peng</t>
-  </si>
-  <si>
-    <t>Edwin Chen</t>
-  </si>
-  <si>
-    <t>Ahmad Fahmi Muhamed Fadzil</t>
-  </si>
-  <si>
-    <t>Ramlan Shahean@Askolani</t>
-  </si>
-  <si>
-    <t>Fauzi Abu Bakar</t>
-  </si>
-  <si>
-    <t>Asmah Razalli</t>
-  </si>
-  <si>
-    <t>Teresa Kok</t>
-  </si>
-  <si>
-    <t>Wong Yee Yeng</t>
-  </si>
-  <si>
-    <t>Lee Kah Hing</t>
-  </si>
-  <si>
-    <t>Lee Wai Hong</t>
-  </si>
-  <si>
-    <t>Choy San Yeh</t>
-  </si>
-  <si>
-    <t>Tan Kok Wai</t>
-  </si>
-  <si>
-    <t>Ruby Chin Yoke Kheng</t>
-  </si>
-  <si>
-    <t>Chong Yew Chuan</t>
-  </si>
-  <si>
-    <t>Wan Azizah Wan Ismail</t>
-  </si>
-  <si>
-    <t>Kamarudin Jaffar</t>
-  </si>
-  <si>
-    <t>Chew Yin Keen</t>
-  </si>
-  <si>
-    <t>Radzi Jidin</t>
-  </si>
-  <si>
-    <t>Tengku Adnan Tengku Mansor</t>
-  </si>
-  <si>
-    <t>Noraishah Mydin Haji Abdul Aziz</t>
-  </si>
-  <si>
-    <t>Mohd Rosli Ramli</t>
-  </si>
-  <si>
-    <t>Samsudin Pkpkl</t>
-  </si>
-  <si>
-    <t>Lim Fice Bee</t>
-  </si>
-  <si>
-    <t>Suhaili Abdul Rahman</t>
-  </si>
-  <si>
-    <t>Bashir Alias</t>
-  </si>
-  <si>
-    <t>Rozman Isli</t>
-  </si>
-  <si>
-    <t>Ramli Tahir</t>
-  </si>
-  <si>
-    <t>Dayang Rusimah</t>
-  </si>
-  <si>
-    <t>Ramle Mat Daly</t>
-  </si>
-  <si>
-    <t>Jalaluddin Alias</t>
-  </si>
-  <si>
-    <t>Zulkefly Mohd Omar</t>
-  </si>
-  <si>
-    <t>Zaharuddin Baba Samion</t>
-  </si>
-  <si>
-    <t>Ahmad Fakri Abu Samah</t>
-  </si>
-  <si>
-    <t>Shamshulkahar Mohd Deli</t>
-  </si>
-  <si>
-    <t>Norwani Ahmat</t>
-  </si>
-  <si>
-    <t>Affendy Salleh</t>
-  </si>
-  <si>
-    <t>Khalid Yunus</t>
-  </si>
-  <si>
-    <t>Anthony Loke Siew Fook</t>
-  </si>
-  <si>
-    <t>Fadli Che Me</t>
-  </si>
-  <si>
-    <t>Felicia Wong Yin Ting</t>
-  </si>
-  <si>
-    <t>Mohamad Jani Ismail</t>
-  </si>
-  <si>
-    <t>Izzat Lesly</t>
-  </si>
-  <si>
-    <t>Adnan Abu Hassan</t>
-  </si>
-  <si>
-    <t>Nor Azman Mohamad</t>
-  </si>
-  <si>
-    <t>Eddin Syazlee Shith</t>
-  </si>
-  <si>
-    <t>Kamarulzaman Kamdias</t>
-  </si>
-  <si>
-    <t>Azman Idris</t>
-  </si>
-  <si>
-    <t>Cha Kee Chin</t>
-  </si>
-  <si>
-    <t>Ng Kian Nam</t>
-  </si>
-  <si>
-    <t>David Choong</t>
-  </si>
-  <si>
-    <t>Mohamad Hasan (Tok Mat)</t>
-  </si>
-  <si>
-    <t>Jufitri Joha</t>
-  </si>
-  <si>
-    <t>Mohd Nazree Mohd Yunus</t>
-  </si>
-  <si>
-    <t>S. Tinagaran</t>
-  </si>
-  <si>
-    <t>Ramly Awalludin</t>
-  </si>
-  <si>
-    <t>Aminuddin Harun</t>
-  </si>
-  <si>
-    <t>P.Kamalanathan</t>
-  </si>
-  <si>
-    <t>Rafiei Mustapha</t>
-  </si>
-  <si>
-    <t>Ahmad Idham Ahmad Nazri</t>
-  </si>
-  <si>
-    <t>Abdul Rani Kulup</t>
-  </si>
-  <si>
-    <t>Mohd Isam Mohd Isa</t>
-  </si>
-  <si>
-    <t>Muhammad Faiz Fadzil</t>
-  </si>
-  <si>
-    <t>Abdul Halim Abu Bakar</t>
-  </si>
-  <si>
-    <t>Zamani  Ibrahim</t>
-  </si>
-  <si>
-    <t>Mas Ermieyati Samsudin</t>
-  </si>
-  <si>
-    <t>Abdul Hakim Abdul Wahid</t>
-  </si>
-  <si>
-    <t>Mutalib Uthman</t>
-  </si>
-  <si>
-    <t>Handrawirawan Abu Bakar</t>
-  </si>
-  <si>
-    <t>Adly Zahari</t>
-  </si>
-  <si>
-    <t>Shahril Sufian Hamdan</t>
-  </si>
-  <si>
-    <t>Mohd Redzuan Md Yusof (Pak Wan)</t>
-  </si>
-  <si>
-    <t>Muhammad Nazriq Abdul Rahman</t>
-  </si>
-  <si>
-    <t>Bakri Jamaluddin</t>
-  </si>
-  <si>
-    <t>Rusnah Aluai</t>
-  </si>
-  <si>
-    <t>Lim Ban Hong</t>
-  </si>
-  <si>
-    <t>Ghazali Abu</t>
-  </si>
-  <si>
-    <t>Shahril Mahmood</t>
-  </si>
-  <si>
-    <t>Adam Adli Abdul Halim</t>
-  </si>
-  <si>
-    <t>Mohd Ridhwan Mohd Ali</t>
-  </si>
-  <si>
-    <t>Mohd Azrudin Md Idris</t>
-  </si>
-  <si>
-    <t>Sheikh Ikhzan Sheikh Salleh</t>
-  </si>
-  <si>
-    <t>Khoo Poay Tiong</t>
-  </si>
-  <si>
-    <t>Suhaime Borhan</t>
-  </si>
-  <si>
-    <t>Kon Qi Yao</t>
-  </si>
-  <si>
-    <t>Norazlanshah Hazali</t>
-  </si>
-  <si>
-    <t>Zulkifli Ismail</t>
-  </si>
-  <si>
-    <t>Roslan Ahmad</t>
-  </si>
-  <si>
-    <t>Harun Mohamed</t>
-  </si>
-  <si>
-    <t>Mohd Daud Nasir</t>
-  </si>
-  <si>
-    <t>Yuneswaran Ramaraj</t>
-  </si>
-  <si>
-    <t>Ramasamy Muthusamy</t>
-  </si>
-  <si>
-    <t>Poobalan Ponnusamy</t>
-  </si>
-  <si>
-    <t>Syed Hairoul Faizey Syed Ali</t>
-  </si>
-  <si>
-    <t>Zaliha Mustafa</t>
-  </si>
-  <si>
-    <t>Md Salleheen Mohamad</t>
-  </si>
-  <si>
-    <t>Uzzair Ismail</t>
-  </si>
-  <si>
-    <t>Mohd Zohar Ahmad</t>
-  </si>
-  <si>
-    <t>Mohd Saiful Faizal Abd Halim</t>
-  </si>
-  <si>
-    <t>Pang Hok Liong</t>
-  </si>
-  <si>
-    <t>Chua Tee Yong</t>
-  </si>
-  <si>
-    <t>Alvin Chang Teck Kiam</t>
-  </si>
-  <si>
-    <t>Mahiaddin Md Yasin (Muhyiddin Md Yasin)</t>
-  </si>
-  <si>
-    <t>Iskandar Shah Abd Rahman</t>
-  </si>
-  <si>
-    <t>Razali Ibrahim</t>
-  </si>
-  <si>
-    <t>Syed Ibrahim Syed Nor</t>
-  </si>
-  <si>
-    <t>Hamim Samuri</t>
-  </si>
-  <si>
-    <t>Zaidi Hj Majid</t>
-  </si>
-  <si>
-    <t>Rafidah Ridwan</t>
-  </si>
-  <si>
-    <t>Yunus Mustakim</t>
-  </si>
-  <si>
-    <t>Zainal Bahrom</t>
-  </si>
-  <si>
-    <t>Tan Hong Pin</t>
-  </si>
-  <si>
-    <t>Lee Ching Yong</t>
-  </si>
-  <si>
-    <t>Chelvarajan R. Suppiah</t>
-  </si>
-  <si>
-    <t>Haron Jaafar</t>
-  </si>
-  <si>
-    <t>Syed Saddiq Syed Abdul Rahman</t>
-  </si>
-  <si>
-    <t>Ustaz Abdullah Husin</t>
-  </si>
-  <si>
-    <t>Mohd Helmy Abd Latif</t>
-  </si>
-  <si>
-    <t>Noraini Ahmad</t>
-  </si>
-  <si>
-    <t>Abdul Karim Deraman</t>
-  </si>
-  <si>
-    <t>Mohd Faizal Dollah</t>
-  </si>
-  <si>
-    <t>Wee Ka Siong</t>
-  </si>
-  <si>
-    <t>Sheikh Umar Bagharib Ali</t>
-  </si>
-  <si>
-    <t>Muhammad Syafiq A. Aziz</t>
-  </si>
-  <si>
-    <t>Aminolhuda Hassan (Cikgu Huda)</t>
-  </si>
-  <si>
-    <t>Mohd Lassim Burhan</t>
-  </si>
-  <si>
-    <t>Zanariyah Abdul Hamid</t>
-  </si>
-  <si>
-    <t>Mahdzir Ibrahim</t>
-  </si>
-  <si>
-    <t>Onn Abu Bakar</t>
-  </si>
-  <si>
-    <t>Mohd Rashid Hasnon</t>
-  </si>
-  <si>
-    <t>Ishak Mohd Farid Siraj</t>
-  </si>
-  <si>
-    <t>Nizam Bashir</t>
-  </si>
-  <si>
-    <t>Zahari Osman</t>
-  </si>
-  <si>
-    <t>Hasni Mohammad</t>
-  </si>
-  <si>
-    <t>Maszlee Malik</t>
-  </si>
-  <si>
-    <t>Fazrul Kamat</t>
-  </si>
-  <si>
-    <t>Kamal Kusmin</t>
-  </si>
-  <si>
-    <t>Wong Shu Qi</t>
-  </si>
-  <si>
-    <t>Gan Ping Sieu</t>
-  </si>
-  <si>
-    <t>Dzulkarnain Alias</t>
-  </si>
-  <si>
-    <t>Ramendran Ulaganathan</t>
-  </si>
-  <si>
-    <t>Hishammuddin Hussein</t>
-  </si>
-  <si>
-    <t>Hasni Abas</t>
-  </si>
-  <si>
-    <t>Aziz Ismail (Joe Aziz)</t>
-  </si>
-  <si>
-    <t>Muhammad Islahuddin Abas</t>
-  </si>
-  <si>
-    <t>Abd Latif Bandi Nor Sebandi</t>
-  </si>
-  <si>
-    <t>Fatin Zulaikha Zaidi</t>
-  </si>
-  <si>
-    <t>Nurfatimah Ibrahim</t>
-  </si>
-  <si>
-    <t>Ismail Don</t>
-  </si>
-  <si>
-    <t>Manndzri Nasib</t>
-  </si>
-  <si>
-    <t>Mohd Nazari Mokhtar</t>
-  </si>
-  <si>
-    <t>Zuraidah Zainab Mohd Zain</t>
-  </si>
-  <si>
-    <t>Azhar Palal</t>
-  </si>
-  <si>
-    <t>Khaled Nordin (Mohamed Khaled Nordin)</t>
-  </si>
-  <si>
-    <t>Ridhwan Rasman</t>
-  </si>
-  <si>
-    <t>Onn Jaafar</t>
-  </si>
-  <si>
-    <t>Azalina Othman Said</t>
-  </si>
-  <si>
-    <t>Fairulnizar Rahmat (Cikgu Imam Nizar)</t>
-  </si>
-  <si>
-    <t>Che Zakaria Mohd Salleh</t>
-  </si>
-  <si>
-    <t>Jimmy Puah Wee Tse</t>
-  </si>
-  <si>
-    <t>Mohamad Isa Mohamad Basir</t>
-  </si>
-  <si>
-    <t>Nicole Wong Siaw Ting</t>
-  </si>
-  <si>
-    <t>Hassan Abdul Karim</t>
-  </si>
-  <si>
-    <t>Mohamad Farid Abdul Razak</t>
-  </si>
-  <si>
-    <t>Noor Azleen Ambros</t>
-  </si>
-  <si>
-    <t>Mohammad Raffi Beran</t>
-  </si>
-  <si>
-    <t>Akmal Nasrullah Mohd Nasir</t>
-  </si>
-  <si>
-    <t>Johan Arifin Mohd Ropi</t>
-  </si>
-  <si>
-    <t>Mohd Mohtaj Yacob</t>
-  </si>
-  <si>
-    <t>Mohd Akhiri Mahmood (Hairy Mahmood)</t>
-  </si>
-  <si>
-    <t>Salahuddin Ayub</t>
-  </si>
-  <si>
-    <t>Nur Jazlan Mohamed</t>
-  </si>
-  <si>
-    <t>Loh Kah Yong</t>
-  </si>
-  <si>
-    <t>Liew Chin Tong</t>
-  </si>
-  <si>
-    <t>Jason Teoh Sew Hock</t>
-  </si>
-  <si>
-    <t>Jashen Tan Nam Cha</t>
-  </si>
-  <si>
-    <t>Teo Nie Ching</t>
-  </si>
-  <si>
-    <t>Chua Jian Boon</t>
-  </si>
-  <si>
-    <t>Tan Chin Hok</t>
-  </si>
-  <si>
-    <t>Ahmad Maslan</t>
-  </si>
-  <si>
-    <t>Isa Ab Hamid</t>
-  </si>
-  <si>
-    <t>Shazwan Zdainal Abidin</t>
-  </si>
-  <si>
-    <t>Jamaluddin Mohamad</t>
-  </si>
-  <si>
-    <t>Wee Jeck Seng</t>
-  </si>
-  <si>
-    <t>Lim Wei Jiet</t>
-  </si>
-  <si>
-    <t>Najwah Halimah Ab Alim</t>
-  </si>
-  <si>
-    <t>Verdon Bahanda</t>
-  </si>
-  <si>
-    <t>Ruddy Awah</t>
-  </si>
-  <si>
-    <t>Rashid Abdul Harun</t>
-  </si>
-  <si>
-    <t>Thonny Chee</t>
-  </si>
-  <si>
-    <t>Petronella Usun</t>
-  </si>
-  <si>
-    <t>Wetrom Bahanda</t>
-  </si>
-  <si>
-    <t>Maximus@Johnity Ongkili</t>
-  </si>
-  <si>
-    <t>Zainuddin Kuminding</t>
-  </si>
-  <si>
-    <t>Sharizal Denci</t>
-  </si>
-  <si>
-    <t>Norman Tulang</t>
-  </si>
-  <si>
-    <t>Mohd Azmi Zulkiflee</t>
-  </si>
-  <si>
-    <t>Munirah Majilis</t>
-  </si>
-  <si>
-    <t>Abd Rahman Dahlan</t>
-  </si>
-  <si>
-    <t>Madeli @ Modily Bangali</t>
-  </si>
-  <si>
-    <t>Madius Tangau</t>
-  </si>
-  <si>
-    <t>Joniston Bangkuai</t>
-  </si>
-  <si>
-    <t>Anna Sue Henley Rampas</t>
-  </si>
-  <si>
-    <t>Noortaip Suhaili @ Sualee</t>
-  </si>
-  <si>
-    <t>Muminin Norbinsha</t>
-  </si>
-  <si>
-    <t>Boby Lewat</t>
-  </si>
-  <si>
-    <t>Mustapha Sakmud</t>
-  </si>
-  <si>
-    <t>Yakub Khan</t>
-  </si>
-  <si>
-    <t>Mohd Azis</t>
-  </si>
-  <si>
-    <t>Jumardie Lukman</t>
-  </si>
-  <si>
-    <t>Yusof Kunchang</t>
-  </si>
-  <si>
-    <t>Chan Foong Hin</t>
-  </si>
-  <si>
-    <t>Yeo Yan Yin @ Amanda</t>
-  </si>
-  <si>
-    <t>Yee Tsai Yiew</t>
-  </si>
-  <si>
-    <t>Winston Liaw Kit Siong</t>
-  </si>
-  <si>
-    <t>Marcel Jude</t>
-  </si>
-  <si>
-    <t>Shahelmey Yahya</t>
-  </si>
-  <si>
-    <t>Awang Husaini Sahari</t>
-  </si>
-  <si>
-    <t>Ahmad Mohd Said</t>
-  </si>
-  <si>
-    <t>Poyne B. Tudus @ Patrick Payne</t>
-  </si>
-  <si>
-    <t>Ewon Benedick</t>
-  </si>
-  <si>
-    <t>Darell Leiking</t>
-  </si>
-  <si>
-    <t>Kenny Chua Teck Ho</t>
-  </si>
-  <si>
-    <t>Richard Jimmy</t>
-  </si>
-  <si>
-    <t>Armizan Mohd Ali</t>
-  </si>
-  <si>
-    <t>Ahmad Hassan</t>
-  </si>
-  <si>
-    <t>Henry Shim</t>
-  </si>
-  <si>
-    <t>Nicholas Sylvester @ Berry</t>
-  </si>
-  <si>
-    <t>Johnny Sitamin</t>
-  </si>
-  <si>
-    <t>Norbert Chin</t>
-  </si>
-  <si>
-    <t>Mohamad Alamin</t>
-  </si>
-  <si>
-    <t>Daud Yusof</t>
-  </si>
-  <si>
-    <t>Amat Md Yusof</t>
-  </si>
-  <si>
-    <t>Rowindy Lawrence Odong</t>
-  </si>
-  <si>
-    <t>Yusop Osman</t>
-  </si>
-  <si>
-    <t>Siti Aminah Aching</t>
-  </si>
-  <si>
-    <t>Johair Mat Lani</t>
-  </si>
-  <si>
-    <t>Dikin Musah</t>
-  </si>
-  <si>
-    <t>Masri Adul</t>
-  </si>
-  <si>
-    <t>Johan @ Christopher O T Ghani</t>
-  </si>
-  <si>
-    <t>Matlani Sabli</t>
-  </si>
-  <si>
-    <t>Matbali Musah</t>
-  </si>
-  <si>
-    <t>Adnan Okk Puteh</t>
-  </si>
-  <si>
-    <t>Lahirul Latigul</t>
-  </si>
-  <si>
-    <t>Jonathan Yasin</t>
-  </si>
-  <si>
-    <t>Taufik Dahlan</t>
-  </si>
-  <si>
-    <t>Ewon Ebin</t>
-  </si>
-  <si>
-    <t>Markos Siton</t>
-  </si>
-  <si>
-    <t>Azizul Julirin</t>
-  </si>
-  <si>
-    <t>Jeffrey Gapari Kitingan</t>
-  </si>
-  <si>
-    <t>Grelydia Gillod</t>
-  </si>
-  <si>
-    <t>Jake Nointin</t>
-  </si>
-  <si>
-    <t>Rasinin Koutis @ Kautis</t>
-  </si>
-  <si>
-    <t>Riduan Rubin</t>
-  </si>
-  <si>
-    <t>Noorita Sual</t>
-  </si>
-  <si>
-    <t>afar</t>
-  </si>
-  <si>
-    <t>Ukim Buandi</t>
-  </si>
-  <si>
-    <t>Peggy Chaw Zhi Ting</t>
-  </si>
-  <si>
-    <t>Arthur Joseph Kurup</t>
-  </si>
-  <si>
-    <t>Sangkar Rasam</t>
-  </si>
-  <si>
-    <t>Jekerison Kilan</t>
-  </si>
-  <si>
-    <t>Siti Noorhasmahwatty Osman</t>
-  </si>
-  <si>
-    <t>Jamani Derimin</t>
-  </si>
-  <si>
-    <t>Ronald Kiandee</t>
-  </si>
-  <si>
-    <t>Benedict Asmat</t>
-  </si>
-  <si>
-    <t>Felix Joseph Saang</t>
-  </si>
-  <si>
-    <t>Rowiena Rasid</t>
-  </si>
-  <si>
-    <t>Hausing Samsudin @ Sudin</t>
-  </si>
-  <si>
-    <t>Suhaimi Nasir</t>
-  </si>
-  <si>
-    <t>Peter Jr Naintin</t>
-  </si>
-  <si>
-    <t>Sharif Bokrata</t>
-  </si>
-  <si>
-    <t>Jeffri @ Amat Pudang</t>
-  </si>
-  <si>
-    <t>Amdan Tumpong</t>
-  </si>
-  <si>
-    <t>Nordin Khani</t>
-  </si>
-  <si>
-    <t>Khairul Firdaus Akbar Khan</t>
-  </si>
-  <si>
-    <t>Liau Fui Fui</t>
-  </si>
-  <si>
-    <t>Alias Sani</t>
-  </si>
-  <si>
-    <t>Boni Yusuf Juanico Abdullah</t>
-  </si>
-  <si>
-    <t>Othman Ahmad</t>
-  </si>
-  <si>
-    <t>Vivian Wong Shir Yee</t>
-  </si>
-  <si>
-    <t>Alex Thien</t>
-  </si>
-  <si>
-    <t>Lau Chi Keong @ Thomas Lau</t>
-  </si>
-  <si>
-    <t>Peter Hii</t>
-  </si>
-  <si>
-    <t>Syeikh Lokeman</t>
-  </si>
-  <si>
-    <t>Hajjah Lita Tan Abdullah</t>
-  </si>
-  <si>
-    <t>Bung Moktar Radin</t>
-  </si>
-  <si>
-    <t>Mazliwati Abdul Malek</t>
-  </si>
-  <si>
-    <t>Mohammad Yusof Apdal</t>
-  </si>
-  <si>
-    <t>Maizatul Akmam Alawi</t>
-  </si>
-  <si>
-    <t>Sia Yu Hock</t>
-  </si>
-  <si>
-    <t>Mohd Shafie Apdal</t>
-  </si>
-  <si>
-    <t>Nixon Abdul Habi</t>
-  </si>
-  <si>
-    <t>Arastam Pandorog</t>
-  </si>
-  <si>
-    <t>Ab Rajik Ab Hamid</t>
-  </si>
-  <si>
-    <t>Lo Su Fui</t>
-  </si>
-  <si>
-    <t>Liew Chin Jin</t>
-  </si>
-  <si>
-    <t>Kc Chen Ket Chuin</t>
-  </si>
-  <si>
-    <t>Salleh Bacho</t>
-  </si>
-  <si>
-    <t>Herman Amdas</t>
-  </si>
-  <si>
-    <t>Chin Chee Syn</t>
-  </si>
-  <si>
-    <t>Andi Muhammad Suryady Bandy</t>
-  </si>
-  <si>
-    <t>mun Sulaiman</t>
-  </si>
-  <si>
-    <t>Noraini Abd Ghapur</t>
-  </si>
-  <si>
-    <t>Nur Aini Abd Rahman</t>
-  </si>
-  <si>
-    <t>Muhamad</t>
-  </si>
-  <si>
-    <t>Mordi Bimol</t>
-  </si>
-  <si>
-    <t>Lidang Disen</t>
-  </si>
-  <si>
-    <t>Ryan Sim Min Leong</t>
-  </si>
-  <si>
-    <t>Nancy Shukri</t>
-  </si>
-  <si>
-    <t>Mohamad Zen Peli</t>
-  </si>
-  <si>
-    <t>Affendi Jeman</t>
-  </si>
-  <si>
-    <t>Fadillah Yusof</t>
-  </si>
-  <si>
-    <t>Sopian Julaihi</t>
-  </si>
-  <si>
-    <t>Othman Abdillah</t>
-  </si>
-  <si>
-    <t>Kelvin Yii Lee Wuen</t>
-  </si>
-  <si>
-    <t>Tay Tze Kok</t>
-  </si>
-  <si>
-    <t>Voon Lee Shan</t>
-  </si>
-  <si>
-    <t>Chong Chieng Jen</t>
-  </si>
-  <si>
-    <t>Lo Khere Chiang</t>
-  </si>
-  <si>
-    <t>Lue Cheng Hing</t>
-  </si>
-  <si>
-    <t>Rubiah Wang</t>
-  </si>
-  <si>
-    <t>Abang Abdul Halil Abang Naili</t>
-  </si>
-  <si>
-    <t>Willie Mongin</t>
-  </si>
-  <si>
-    <t>Diog Dios</t>
-  </si>
-  <si>
-    <t>Iana Akam</t>
-  </si>
-  <si>
-    <t>Richard Riot Jaem</t>
-  </si>
-  <si>
-    <t>Alim Impira</t>
-  </si>
-  <si>
-    <t>Elsiy Tingang</t>
-  </si>
-  <si>
-    <t>Learry Jabul</t>
-  </si>
-  <si>
-    <t>Rodiyah Sapiee</t>
-  </si>
-  <si>
-    <t>Lahaji Lahiya</t>
-  </si>
-  <si>
-    <t>Mohamad Shafizan (Kepli)</t>
-  </si>
-  <si>
-    <t>Hamdan Sani</t>
-  </si>
-  <si>
-    <t>Wel @ Maxwel Rojis</t>
-  </si>
-  <si>
-    <t>Doris Sophia Brodi</t>
-  </si>
-  <si>
-    <t>Wilson Entabang</t>
-  </si>
-  <si>
-    <t>Masir Kujat</t>
-  </si>
-  <si>
-    <t>Naga Libau @Tay</t>
-  </si>
-  <si>
-    <t>Roy Angau Gingkoi</t>
-  </si>
-  <si>
-    <t>Johnichal Rayong Ngipa</t>
-  </si>
-  <si>
-    <t>Jugah Muyang</t>
-  </si>
-  <si>
-    <t>Langga Lias</t>
-  </si>
-  <si>
-    <t>Richard Rapu</t>
-  </si>
-  <si>
-    <t>Patrick Kamis @ Kameng</t>
-  </si>
-  <si>
-    <t>Hasbie Satar</t>
-  </si>
-  <si>
-    <t>Ali Biju</t>
-  </si>
-  <si>
-    <t>Giendam Jonathan Tait</t>
-  </si>
-  <si>
-    <t>Ibil Jaya</t>
-  </si>
-  <si>
-    <t>Yusuf Wahab</t>
-  </si>
-  <si>
-    <t>Zainab Suhaili</t>
-  </si>
-  <si>
-    <t>Ahmad Johnie Zawawi</t>
-  </si>
-  <si>
-    <t>Hud Andri</t>
-  </si>
-  <si>
-    <t>Huang Tiong Sii</t>
-  </si>
-  <si>
-    <t>Roderick Wong Siew Lead</t>
-  </si>
-  <si>
-    <t>Larry Soon @ Larry Sng Wei Shien</t>
-  </si>
-  <si>
-    <t>Joseph Salang Gandum</t>
-  </si>
-  <si>
-    <t>Elly Lawai</t>
-  </si>
-  <si>
-    <t>Susan George</t>
-  </si>
-  <si>
-    <t>Aaron Ago Dagang</t>
-  </si>
-  <si>
-    <t>Mohd Fauzi Abdullah (Joseph Nyambong)</t>
-  </si>
-  <si>
-    <t>Michael Lias</t>
-  </si>
-  <si>
-    <t>George Chen Nyuk Fa</t>
-  </si>
-  <si>
-    <t>Elli Luhat</t>
-  </si>
-  <si>
-    <t>Alice Lau Kiong Yieng</t>
-  </si>
-  <si>
-    <t>Wong Ching Yong</t>
-  </si>
-  <si>
-    <t>Priscilla Lau</t>
-  </si>
-  <si>
-    <t>Wong Tiing Kiong</t>
-  </si>
-  <si>
-    <t>Oscar Ling Chai Yew</t>
-  </si>
-  <si>
-    <t>Clarence Ting Ing Horh</t>
-  </si>
-  <si>
-    <t>Wong Soon Koh</t>
-  </si>
-  <si>
-    <t>Hanifah Hajar Taib</t>
-  </si>
-  <si>
-    <t>Abdul Jalill Bujang</t>
-  </si>
-  <si>
-    <t>Edwin Banta</t>
-  </si>
-  <si>
-    <t>Umpang Sabang</t>
-  </si>
-  <si>
-    <t>Henry Joseph Usau</t>
-  </si>
-  <si>
-    <t>Alexander Nanta Linggi</t>
-  </si>
-  <si>
-    <t>Khusyairy Pangkas @ Pangkas Anak Unggang</t>
-  </si>
-  <si>
-    <t>Robert Saweng</t>
-  </si>
-  <si>
-    <t>Ugak Kumbong</t>
-  </si>
-  <si>
-    <t>Abun Sui Anyit</t>
-  </si>
-  <si>
-    <t>Tiong King Sing</t>
-  </si>
-  <si>
-    <t>Chiew Chan Yew</t>
-  </si>
-  <si>
-    <t>Duke Janteng</t>
-  </si>
-  <si>
-    <t>Lukanisman Awang Sauni</t>
-  </si>
-  <si>
-    <t>Zulhaidah Suboh</t>
-  </si>
-  <si>
-    <t>Bobby William</t>
-  </si>
-  <si>
-    <t>Chiew Choon Man</t>
-  </si>
-  <si>
-    <t>Jeffery Phang</t>
-  </si>
-  <si>
-    <t>Lawrence Lai</t>
-  </si>
-  <si>
-    <t>Hasbi Habibollah</t>
-  </si>
-  <si>
-    <t>Racha Balang</t>
-  </si>
-  <si>
-    <t>Henry Sum Agong</t>
-  </si>
-  <si>
-    <t>Baru Bian</t>
-  </si>
-  <si>
-    <t>Japar Suyut</t>
+    <t>RUSHDAN RUSMI</t>
+  </si>
+  <si>
+    <t>ZAHIDA ZARIK KHAN</t>
+  </si>
+  <si>
+    <t>MOHAMAD SAAD@YAHAYA</t>
+  </si>
+  <si>
+    <t>ZAHIDI ZAINUL ABIDIN</t>
+  </si>
+  <si>
+    <t>KO CHU LIANG</t>
+  </si>
+  <si>
+    <t>ZAKRI HASSAN</t>
+  </si>
+  <si>
+    <t>FATHUL BARI MAT JAHYA</t>
+  </si>
+  <si>
+    <t>NOOR AMIN AHMAD</t>
+  </si>
+  <si>
+    <t>NUR SULAIMAN ZOLKAPLI</t>
+  </si>
+  <si>
+    <t>ROHIMI SHAPIEE</t>
+  </si>
+  <si>
+    <t>SHAHIDAN KASSIM</t>
+  </si>
+  <si>
+    <t>ROZABIL ABD RAHMAN @ TOK BEN</t>
+  </si>
+  <si>
+    <t>FATHIN AMELINA FAZLIE</t>
+  </si>
+  <si>
+    <t>MOHD SUHAIMI ABDULLAH</t>
+  </si>
+  <si>
+    <t>ARMISHAH SIRAJ (DAS)</t>
+  </si>
+  <si>
+    <t>ZABIDI YAHYA</t>
+  </si>
+  <si>
+    <t>MAHATHIR MOHAMAD</t>
+  </si>
+  <si>
+    <t>ABD KADIR SAINUDDIN</t>
+  </si>
+  <si>
+    <t>ABD GHANI AHMAD</t>
+  </si>
+  <si>
+    <t>OTHMAN AZIZ</t>
+  </si>
+  <si>
+    <t>MOHAMED FADZIL MOHD ALI</t>
+  </si>
+  <si>
+    <t>MUKHRIZ MAHATHIR</t>
+  </si>
+  <si>
+    <t>KU ABD RAHMAN KU ISMAIL</t>
+  </si>
+  <si>
+    <t>MOHD AIZUDDIN ARIFFIN</t>
+  </si>
+  <si>
+    <t>HASMUNI HASSAN (TOK MUNI)</t>
+  </si>
+  <si>
+    <t>AMIRUDDIN HAMZAH (TOK MET)</t>
+  </si>
+  <si>
+    <t>NURUL AMIN HAMID</t>
+  </si>
+  <si>
+    <t>MAHDZIR KHALID</t>
+  </si>
+  <si>
+    <t>MUAZ ABDULLAH</t>
+  </si>
+  <si>
+    <t>RAZALI LEBAI SALLEH</t>
+  </si>
+  <si>
+    <t>AHMAD SAAD @ YAHAYA</t>
+  </si>
+  <si>
+    <t>MAHFUZ OMAR</t>
+  </si>
+  <si>
+    <t>NORAN ZAMINI JAMALUDDIN</t>
+  </si>
+  <si>
+    <t>NORAINI MD SALLEH</t>
+  </si>
+  <si>
+    <t>AFNAN HAMIMI TAIB AZAMUDDEN</t>
+  </si>
+  <si>
+    <t>SIMON OOI TZE MIN</t>
+  </si>
+  <si>
+    <t>TAN CHEE HIONG</t>
+  </si>
+  <si>
+    <t>MOHAMAD NUHAIRI RAHMAT</t>
+  </si>
+  <si>
+    <t>FADZIL HANAFI</t>
+  </si>
+  <si>
+    <t>SOFAN FEROZA MD YUSUP</t>
+  </si>
+  <si>
+    <t>NORDIN YUNUS</t>
+  </si>
+  <si>
+    <t>AHMAD FAKHRUDDIN FAKHRURAZI</t>
+  </si>
+  <si>
+    <t>AZMAN ISMAIL</t>
+  </si>
+  <si>
+    <t>MASHITAH IBRAHIM</t>
+  </si>
+  <si>
+    <t>ULYA UQAMAH HUSAMUDIN</t>
+  </si>
+  <si>
+    <t>SYED ARANIRI SYED AHMAD (PAK TUAN)</t>
+  </si>
+  <si>
+    <t>AWANG SOLAHUDIN</t>
+  </si>
+  <si>
+    <t>SURAYA YAACOB</t>
+  </si>
+  <si>
+    <t>ZULKIFLY MOHAMAD (ZUL)</t>
+  </si>
+  <si>
+    <t>ABDUL RASHID YOB</t>
+  </si>
+  <si>
+    <t>SABRI AZIT</t>
+  </si>
+  <si>
+    <t>JAMIL KHIR BAHAROM</t>
+  </si>
+  <si>
+    <t>ZULHAZMI SHARIFF</t>
+  </si>
+  <si>
+    <t>NIZAM MAHSHAR</t>
+  </si>
+  <si>
+    <t>AHMAD TARMIZI SULAIMAN</t>
+  </si>
+  <si>
+    <t>MAIZATUL AKMAM OTHMAN @ IBRAHIM (MAIZA)</t>
+  </si>
+  <si>
+    <t>LATIPAH MD YATIM (LATIFAH)</t>
+  </si>
+  <si>
+    <t>MOHD NAZRI ABU HASSAN</t>
+  </si>
+  <si>
+    <t>NOR AZRINA SURIP (NURIN AINA)</t>
+  </si>
+  <si>
+    <t>SHAIFUL HAZIZY ZAINOL ABIDIN</t>
+  </si>
+  <si>
+    <t>MOHAMED MOSIN ABDUL RAZAK</t>
+  </si>
+  <si>
+    <t>KHAIRUL ANUAR AHMAD</t>
+  </si>
+  <si>
+    <t>MOHAMMED TAUFIQ JOHARI</t>
+  </si>
+  <si>
+    <t>ROBERT LING KUI EE</t>
+  </si>
+  <si>
+    <t>SHAHANIM MOHAMAD YUSOFF</t>
+  </si>
+  <si>
+    <t>MARZUKI YAHYA</t>
+  </si>
+  <si>
+    <t>TAN JOON LONG @ TAN CHOW KANG</t>
+  </si>
+  <si>
+    <t>HASSAN SAAD</t>
+  </si>
+  <si>
+    <t>ABDUL AZEEZ ABDUL RAHIM</t>
+  </si>
+  <si>
+    <t>JOHARI ABDULLAH</t>
+  </si>
+  <si>
+    <t>BASIR AB RAHMAN</t>
+  </si>
+  <si>
+    <t>ROSLAN HASHIM</t>
+  </si>
+  <si>
+    <t>SAIFUDDIN NASUTION ISMAIL</t>
+  </si>
+  <si>
+    <t>MUHAR HUSSAIN</t>
+  </si>
+  <si>
+    <t>MOHD YUSRIZAL YUSOFF (RIZAL)</t>
+  </si>
+  <si>
+    <t>MUMTAZ MD. NAWI (KAK TAZ)</t>
+  </si>
+  <si>
+    <t>CHE MUHAMMAD ASWARI CHE ALI (CHE LAH)</t>
+  </si>
+  <si>
+    <t>WAN JOHARI WAN OMAR (HAJI WAN JO)</t>
+  </si>
+  <si>
+    <t>CHE MUHAMMAD ASWARI CHE ALI (ASRI ALI)</t>
+  </si>
+  <si>
+    <t>KHAIRUL AZUAN</t>
+  </si>
+  <si>
+    <t>AHMAD MARZUK SHAARY</t>
+  </si>
+  <si>
+    <t>MOHD HAFIEZULNIEZAM MOHD HASDIN (HAFIZ)</t>
+  </si>
+  <si>
+    <t>NIK FAIZAH NIK OTHMAN (KAK JAH)</t>
+  </si>
+  <si>
+    <t>ABE WEA REDZUAN</t>
+  </si>
+  <si>
+    <t>WAN AHMAD NASRI WAN ISMAIL</t>
+  </si>
+  <si>
+    <t>TAKIYUDDIN HASSAN</t>
+  </si>
+  <si>
+    <t>HAFIDZAH MUSTAKIM</t>
+  </si>
+  <si>
+    <t>ROSMADI ISMAIL</t>
+  </si>
+  <si>
+    <t>CHE MUSA CHE OMAR</t>
+  </si>
+  <si>
+    <t>ANDY TAN</t>
+  </si>
+  <si>
+    <t>IZAT BUKHARY</t>
+  </si>
+  <si>
+    <t>AHMAD FADHLI SHAARY (USTAZ FADHLI SHAARI)</t>
+  </si>
+  <si>
+    <t>AB. GHANI HARUN</t>
+  </si>
+  <si>
+    <t>HUSAM MUSA</t>
+  </si>
+  <si>
+    <t>NASRUL ALI HASAN ABDUL LATIF</t>
+  </si>
+  <si>
+    <t>SITI ZAILAH MOHD. YUSOFF (KAK LAH)</t>
+  </si>
+  <si>
+    <t>ZULKARNAIN YUSOFF (UST ZUL)</t>
+  </si>
+  <si>
+    <t>WAN SHAH JIHAN WAN DIN</t>
+  </si>
+  <si>
+    <t>IBRAHIM ALI</t>
+  </si>
+  <si>
+    <t>ZAIN</t>
+  </si>
+  <si>
+    <t>TUAN IBRAHIM TUAN MAN</t>
+  </si>
+  <si>
+    <t>NURUL AMAL MOHD FAUZI (KAK LONG)</t>
+  </si>
+  <si>
+    <t>WAN AHMAD KAMIL WAN ABDULLAH</t>
+  </si>
+  <si>
+    <t>MOHAMAD RIZAL RAZALI</t>
+  </si>
+  <si>
+    <t>MOHD SYAHIR CHE SULAIMAN</t>
+  </si>
+  <si>
+    <t>HAJI ZAIN</t>
+  </si>
+  <si>
+    <t>NOR AZMIZA MAMAT</t>
+  </si>
+  <si>
+    <t>HAJI ZU</t>
+  </si>
+  <si>
+    <t>KAMARUL AZAM OSMAN (CIKGU ZAM)</t>
+  </si>
+  <si>
+    <t>KHILIR MOHD NOR</t>
+  </si>
+  <si>
+    <t>MARZUANI ARDILA ARIFFIN (GEE)</t>
+  </si>
+  <si>
+    <t>RAHIMI L. MUHAMUD</t>
+  </si>
+  <si>
+    <t>HANIF IBRAHIM (ABE HANEEF)</t>
+  </si>
+  <si>
+    <t>IKMAL HISYAM ABDUL AZIZ</t>
+  </si>
+  <si>
+    <t>MOHD BAKRI MUSTAPHA</t>
+  </si>
+  <si>
+    <t>MOHAMAD SUPARADI MD. NOOR</t>
+  </si>
+  <si>
+    <t>MOHD NASIR ABDULLAH</t>
+  </si>
+  <si>
+    <t>NIK SAPEIA</t>
+  </si>
+  <si>
+    <t>NIK MUHD ZAWAWI SALLEH</t>
+  </si>
+  <si>
+    <t>ZAWAWI OTHMAN (CIKGU AWI)</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HUSAIN</t>
+  </si>
+  <si>
+    <t>WAN MARZUDI WAN OMAR</t>
+  </si>
+  <si>
+    <t>WAN AHMAD FASYHAL WAN KAMAL</t>
+  </si>
+  <si>
+    <t>AHMAD JAZLAN YAAKUB</t>
+  </si>
+  <si>
+    <t>ROSLI ALLANI ABDUL KADIR</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SEMAN</t>
+  </si>
+  <si>
+    <t>ZAHARI KECHIK (POK ZAHARI)</t>
+  </si>
+  <si>
+    <t>NORWAHIDA PATUAN</t>
+  </si>
+  <si>
+    <t>MD RADZI WAHABD</t>
+  </si>
+  <si>
+    <t>MUHAMMAD DAUD (MAT)</t>
+  </si>
+  <si>
+    <t>ABDUL LATIFF ABDUL RAHMAN</t>
+  </si>
+  <si>
+    <t>MOHAMED ZULKEPLI OMAR (ZUKI)</t>
+  </si>
+  <si>
+    <t>MOHD HISYAMUDDIN GHAZALI (SYAM GHAZ)</t>
+  </si>
+  <si>
+    <t>NORASHIKIN CHE OMAR</t>
+  </si>
+  <si>
+    <t>MOHD. AZIZI ABU NAIM</t>
+  </si>
+  <si>
+    <t>TENGKU RAZALEIGH HAMZAH</t>
+  </si>
+  <si>
+    <t>ASHARUN UJI (ABE YO)</t>
+  </si>
+  <si>
+    <t>SAMSU ADABI MAMAT</t>
+  </si>
+  <si>
+    <t>CHE MOHAMAD ZULKIFLY JUSOH (ABE ZUL)</t>
+  </si>
+  <si>
+    <t>NAWI MOHAMAD</t>
+  </si>
+  <si>
+    <t>ABD. RAHMAN @ ABD. AZIZ ABAS</t>
+  </si>
+  <si>
+    <t>WAN NAZARI WAN JUSOH</t>
+  </si>
+  <si>
+    <t>SHAHARIZUKIRNAIN ABDUL KADIR</t>
+  </si>
+  <si>
+    <t>ABDUL RAHMAN MAT YASIN</t>
+  </si>
+  <si>
+    <t>MOHAMAD NGAH</t>
+  </si>
+  <si>
+    <t>WAN ADNAN WAN ALI</t>
+  </si>
+  <si>
+    <t>ALIAS RAZAK</t>
+  </si>
+  <si>
+    <t>MOHD KHAIRUDDIN AMAN RAZALI</t>
+  </si>
+  <si>
+    <t>SUHAIMI HASHIM</t>
+  </si>
+  <si>
+    <t>AZAHA WAHID</t>
+  </si>
+  <si>
+    <t>AHMAD AMZAD MOHAMED @ HASHIM</t>
+  </si>
+  <si>
+    <t>MOHD ZUBIR EMBONG</t>
+  </si>
+  <si>
+    <t>RAJA KAMARUL BAHRIN SHAH RAJA AHMAD SHAH</t>
+  </si>
+  <si>
+    <t>MOHAMAD ABU BAKAR MUDA</t>
+  </si>
+  <si>
+    <t>ABDUL HADI AWANG</t>
+  </si>
+  <si>
+    <t>JASMIRA OTHMAN</t>
+  </si>
+  <si>
+    <t>AZHAR AB SHUKUR</t>
+  </si>
+  <si>
+    <t>ZARAWI SULONG</t>
+  </si>
+  <si>
+    <t>ROSOL WAHID</t>
+  </si>
+  <si>
+    <t>ROZI MAMAT</t>
+  </si>
+  <si>
+    <t>ALIAS ISMAIL</t>
+  </si>
+  <si>
+    <t>MOHD. KHADRI ABDULLAH</t>
+  </si>
+  <si>
+    <t>WAN HASSAN MOHD. RAMLI</t>
+  </si>
+  <si>
+    <t>NURHISAM JOHARI (USTAZ SHAM)</t>
+  </si>
+  <si>
+    <t>MOHD JOHARI MOHAMAD</t>
+  </si>
+  <si>
+    <t>NORAISAH HASAN</t>
+  </si>
+  <si>
+    <t>GHAZALI ISMAIL</t>
+  </si>
+  <si>
+    <t>CHE ALIAS HAMID</t>
+  </si>
+  <si>
+    <t>AHMAD SAID</t>
+  </si>
+  <si>
+    <t>HASUNI SUDIN</t>
+  </si>
+  <si>
+    <t>ROSLI AB. GHANI</t>
+  </si>
+  <si>
+    <t>MASTURA MUHAMMAD</t>
+  </si>
+  <si>
+    <t>REEZAL MERICAN NAINA MERICAN</t>
+  </si>
+  <si>
+    <t>DANIAL ABDUL MAJEED</t>
+  </si>
+  <si>
+    <t>HAMIDI ABU HASSAN</t>
+  </si>
+  <si>
+    <t>WAN SAIFULRUDIN WAN JAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD YUSOFF MOHD NOOR (CHOP)</t>
+  </si>
+  <si>
+    <t>NIK ABDUL RAZAK NIK MD RIDZUAN</t>
+  </si>
+  <si>
+    <t>ABDUL HALIM SHER JUNG</t>
+  </si>
+  <si>
+    <t>MOHAMED AKMAL AZHAR</t>
+  </si>
+  <si>
+    <t>LIM GUAN ENG</t>
+  </si>
+  <si>
+    <t>ALAN OH TEIK CHOON</t>
+  </si>
+  <si>
+    <t>TAN CHUAN HONG</t>
+  </si>
+  <si>
+    <t>MOHAMMED HAFIZ MOHAMED ABU BAKAR</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAWWAZ MAT JAN</t>
+  </si>
+  <si>
+    <t>NURUL IZZAH ANWAR</t>
+  </si>
+  <si>
+    <t>MOHD ZAIDI MOHD SAID</t>
+  </si>
+  <si>
+    <t>MOHD NASIR OTHMAN</t>
+  </si>
+  <si>
+    <t>STEVEN SIM CHEE KEONG</t>
+  </si>
+  <si>
+    <t>STEVEN KOH TIEN YEW</t>
+  </si>
+  <si>
+    <t>TAN YANG PANG (AH PANG)</t>
+  </si>
+  <si>
+    <t>CHOW KON YEOW</t>
+  </si>
+  <si>
+    <t>WONG CHIA ZHEN</t>
+  </si>
+  <si>
+    <t>TAN LEE HUAT</t>
+  </si>
+  <si>
+    <t>ONG CHIN WEN</t>
+  </si>
+  <si>
+    <t>LEE AH LIANG (LEE AH LEONG)</t>
+  </si>
+  <si>
+    <t>FADHLINA SIDEK</t>
+  </si>
+  <si>
+    <t>MANSOR OTHMAN</t>
+  </si>
+  <si>
+    <t>THANENTHIRAN RAMANKUTTY</t>
+  </si>
+  <si>
+    <t>GOH KHENG HUAT</t>
+  </si>
+  <si>
+    <t>SYERLEENA ABDUL RASHID</t>
+  </si>
+  <si>
+    <t>HNG CHEE WEY</t>
+  </si>
+  <si>
+    <t>HUAN XIN YUN</t>
+  </si>
+  <si>
+    <t>TEH YEE CHEU</t>
+  </si>
+  <si>
+    <t>RAZALIF MOHD ZAIN</t>
+  </si>
+  <si>
+    <t>LIM HUI YING</t>
+  </si>
+  <si>
+    <t>TAN KIM NEE</t>
+  </si>
+  <si>
+    <t>NG KHOON LENG</t>
+  </si>
+  <si>
+    <t>SANISVARA NETHAJI RAYER RAJAJI</t>
+  </si>
+  <si>
+    <t>BALJIT SINGH JIGIRI SINGH</t>
+  </si>
+  <si>
+    <t>LOGANATHAN THORAISAMY</t>
+  </si>
+  <si>
+    <t>MOHAMED YACOOB MOHAMED NOOR</t>
+  </si>
+  <si>
+    <t>MARTIN LIM HUAT POH</t>
+  </si>
+  <si>
+    <t>KOH SWE YONG</t>
+  </si>
+  <si>
+    <t>RAMKARPAL SINGH</t>
+  </si>
+  <si>
+    <t>P. THINAGARANABHAN</t>
+  </si>
+  <si>
+    <t>WONG CHIN CHONG</t>
+  </si>
+  <si>
+    <t>SIM TZE TZIN</t>
+  </si>
+  <si>
+    <t>OH TONG KEONG</t>
+  </si>
+  <si>
+    <t>SAW YEE FUNG</t>
+  </si>
+  <si>
+    <t>JEFF OOI CHUAN AUN</t>
+  </si>
+  <si>
+    <t>RAVINDER SINGH</t>
+  </si>
+  <si>
+    <t>KAN CHEE YEUN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD BAKHTIAR WAN CHIK</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HARRIS IDAHAM ABDUL RASHID</t>
+  </si>
+  <si>
+    <t>SHAH HEADAN AYOOB HUSSAIN SHAH</t>
+  </si>
+  <si>
+    <t>SABARUDDIN AHMAD</t>
+  </si>
+  <si>
+    <t>AHMAD FAZLI MOHAMMAD</t>
+  </si>
+  <si>
+    <t>NG EWE GEE</t>
+  </si>
+  <si>
+    <t>FATHUL HUZIR AYOB</t>
+  </si>
+  <si>
+    <t>ASYRAF WAJDI DUSUKI</t>
+  </si>
+  <si>
+    <t>TARMIZI MOHD JAM</t>
+  </si>
+  <si>
+    <t>SHAMSUL ANUAR NASARAH</t>
+  </si>
+  <si>
+    <t>AAT RAZMAN</t>
+  </si>
+  <si>
+    <t>JUREY LATIFF MOHD ROSLI</t>
+  </si>
+  <si>
+    <t>HAMZAH ZAINUDIN</t>
+  </si>
+  <si>
+    <t>MOHD SHAFIQ FHADLY MAHMUD</t>
+  </si>
+  <si>
+    <t>ZOLKARNAIN ABIDIN</t>
+  </si>
+  <si>
+    <t>AUZAIE FADZLAN SHAHIDI</t>
+  </si>
+  <si>
+    <t>MOHD MISBAHUL MUNIR MASDUKI (USTAZ MISBAH)</t>
+  </si>
+  <si>
+    <t>MUJAHID YUSOF RAWA</t>
+  </si>
+  <si>
+    <t>IMRAN MOHD YUSOF</t>
+  </si>
+  <si>
+    <t>ROHIJAS MD SHARIF</t>
+  </si>
+  <si>
+    <t>IDRIS AHMAD</t>
+  </si>
+  <si>
+    <t>ZUL HELMI GHAZALI</t>
+  </si>
+  <si>
+    <t>SITI AISHAH SHAIK AMIN</t>
+  </si>
+  <si>
+    <t>AHMAD LUQMAN AHMAD YAHAYA</t>
+  </si>
+  <si>
+    <t>SYED ABU HUSSIN HAFIZ SYED ABDUL FASAL</t>
+  </si>
+  <si>
+    <t>MOHAMMAD SOLLEHIN MOHAMAD TAJIE</t>
+  </si>
+  <si>
+    <t>FAKHRULDIN MOHD HASHIM</t>
+  </si>
+  <si>
+    <t>MOHD SHUKRI MOHD YUSOFF</t>
+  </si>
+  <si>
+    <t>WONG KAH WOH</t>
+  </si>
+  <si>
+    <t>SEE TEAN SENG</t>
+  </si>
+  <si>
+    <t>NEOH CHOO SEONG (NEOW)</t>
+  </si>
+  <si>
+    <t>LEOW THYE YIH</t>
+  </si>
+  <si>
+    <t>MOHGANAN P MANIKAM</t>
+  </si>
+  <si>
+    <t>RAMA</t>
+  </si>
+  <si>
+    <t>AZAHARI HASAN</t>
+  </si>
+  <si>
+    <t>MOHD ARRIF ABDUL MAJID</t>
+  </si>
+  <si>
+    <t>MUHAMMAD KAMIL ABDUL MUNIM</t>
+  </si>
+  <si>
+    <t>KESAVAN SUBRAMANIAM</t>
+  </si>
+  <si>
+    <t>VIGNESWARAN SANASEE</t>
+  </si>
+  <si>
+    <t>IRUDIANATHAN GABRIEL</t>
+  </si>
+  <si>
+    <t>AHMAD FAUZI MOHD JAAFAR</t>
+  </si>
+  <si>
+    <t>R. INDRANI</t>
+  </si>
+  <si>
+    <t>BAHARUDIN KAMARUDIN</t>
+  </si>
+  <si>
+    <t>RAJAH NARASAIM</t>
+  </si>
+  <si>
+    <t>ANWAR IBRAHIM</t>
+  </si>
+  <si>
+    <t>AHMAD FAIZAL AZUMU</t>
+  </si>
+  <si>
+    <t>AMINUDIN MD HANAFIAH</t>
+  </si>
+  <si>
+    <t>ABDUL RAHIM TAHIR</t>
+  </si>
+  <si>
+    <t>HOWARD LEE CHUAN HOW</t>
+  </si>
+  <si>
+    <t>NOR AFZAINIZAM SALLEH</t>
+  </si>
+  <si>
+    <t>NG KAI CHEONG</t>
+  </si>
+  <si>
+    <t>M. KULASEGARAN</t>
+  </si>
+  <si>
+    <t>LOW GUO NAN (AH NAN)</t>
+  </si>
+  <si>
+    <t>CHEK KWONG WENG</t>
+  </si>
+  <si>
+    <t>M KAYVEAS</t>
+  </si>
+  <si>
+    <t>SIVAKUMAR VARATHARAJU NAIDU</t>
+  </si>
+  <si>
+    <t>WOO CHEONG YUEN</t>
+  </si>
+  <si>
+    <t>TEOH CHIN CHONG</t>
+  </si>
+  <si>
+    <t>ISKANDAR DZULKARNAIN ABDUL KHALID</t>
+  </si>
+  <si>
+    <t>MASLIN SHAM RAZMAN</t>
+  </si>
+  <si>
+    <t>AHMAD TERMIZI RAMLI</t>
+  </si>
+  <si>
+    <t>YUSMALIA MOHAMAD YUSOF</t>
+  </si>
+  <si>
+    <t>NGEH KOO HAM</t>
+  </si>
+  <si>
+    <t>ONG KEAN SING</t>
+  </si>
+  <si>
+    <t>DING SIEW CHEE</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ISMI MAT TAIB</t>
+  </si>
+  <si>
+    <t>MOHD NIZAR ZAKARIA</t>
+  </si>
+  <si>
+    <t>NURTHAQAFFAH NORDIN</t>
+  </si>
+  <si>
+    <t>FAIZOL FADZLI MOHAMED</t>
+  </si>
+  <si>
+    <t>CHONG ZHEMIN</t>
+  </si>
+  <si>
+    <t>LEE CHEE LEONG</t>
+  </si>
+  <si>
+    <t>JANICE WONG OI FOON</t>
+  </si>
+  <si>
+    <t>LEONG CHUK LUNG</t>
+  </si>
+  <si>
+    <t>TAN KAR HING</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FARHAN ABDUL RAHIM</t>
+  </si>
+  <si>
+    <t>CALLY TING ZHAO SONG</t>
+  </si>
+  <si>
+    <t>BALACHANDRAN GOPAL</t>
+  </si>
+  <si>
+    <t>SARAVANAN MURUGAN</t>
+  </si>
+  <si>
+    <t>SARASWATHY KANDASAMI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD YADZAN MOHAMMAD</t>
+  </si>
+  <si>
+    <t>MIOR NOR HAIDIR SUHAIMI</t>
+  </si>
+  <si>
+    <t>MOHAMED AKBAR YASIN</t>
+  </si>
+  <si>
+    <t>M.KATHIRAVAN</t>
+  </si>
+  <si>
+    <t>JAMALUDDIN YAHYA</t>
+  </si>
+  <si>
+    <t>KHAIRUL AZWAN HARUN</t>
+  </si>
+  <si>
+    <t>NIK OMAR NIK ABDUL AZIZ</t>
+  </si>
+  <si>
+    <t>ZAIROL HIZAM ZAKARIA</t>
+  </si>
+  <si>
+    <t>NORDIN AHMAD ISMAIL</t>
+  </si>
+  <si>
+    <t>ZAMBRY ABD KADIR</t>
+  </si>
+  <si>
+    <t>MOHD HATTA MD RAMLI</t>
+  </si>
+  <si>
+    <t>MAZLAN ABD GHANI</t>
+  </si>
+  <si>
+    <t>MOHD ISNIN MOHD ISMAIL @ IBRAHIM KHAN</t>
+  </si>
+  <si>
+    <t>AHMAD ZAHID HAMIDI</t>
+  </si>
+  <si>
+    <t>SHAMSUL ISKANDAR MOHD AKIN</t>
+  </si>
+  <si>
+    <t>AMAN</t>
+  </si>
+  <si>
+    <t>TAWFIK ISMAIL</t>
+  </si>
+  <si>
+    <t>NGA KOR MING</t>
+  </si>
+  <si>
+    <t>ZAINOL FADZI PAHARUDIN</t>
+  </si>
+  <si>
+    <t>MURUGIAH THOPASAMY</t>
+  </si>
+  <si>
+    <t>AMIR KHUSYAIRI MOHAMAD TANUSI</t>
+  </si>
+  <si>
+    <t>CHANG LIH KANG</t>
+  </si>
+  <si>
+    <t>NOLEE RADZI</t>
+  </si>
+  <si>
+    <t>DR MAH HANG SOON</t>
+  </si>
+  <si>
+    <t>DATUK JAMALUDDIN BIN MOHD. RADZI</t>
+  </si>
+  <si>
+    <t>DR AMIR HAMZAH</t>
+  </si>
+  <si>
+    <t>MOHD NOR IZZAT MOHD JOHARI</t>
+  </si>
+  <si>
+    <t>RAMLI MOHD NOR</t>
+  </si>
+  <si>
+    <t>CHIONG YOKE KONG</t>
+  </si>
+  <si>
+    <t>ABDUL RASID</t>
+  </si>
+  <si>
+    <t>ABDUL RAHMAN MOHAMAD</t>
+  </si>
+  <si>
+    <t>MOHAMAD SHAHRUM OSMAN</t>
+  </si>
+  <si>
+    <t>TENGKU ZULPURI SHAH RAJA PUJI</t>
+  </si>
+  <si>
+    <t>AISHATON ABU BAKAR</t>
+  </si>
+  <si>
+    <t>CHOW YU HUI</t>
+  </si>
+  <si>
+    <t>FAKRUNIZAM IBRAHIM</t>
+  </si>
+  <si>
+    <t>CHONG SIN WOON</t>
+  </si>
+  <si>
+    <t>NORKHAIRUL ANUAR MOHAMED NOR</t>
+  </si>
+  <si>
+    <t>KHAIRIL NIZAM KHIRUDIN</t>
+  </si>
+  <si>
+    <t>MOHD ZUKARMI ABU BAKAR</t>
+  </si>
+  <si>
+    <t>HASSAN BASRI AWANG MAT DAHAN</t>
+  </si>
+  <si>
+    <t>SAIFUDDIN ABDULLAH</t>
+  </si>
+  <si>
+    <t>ZURAIDI ISMAIL</t>
+  </si>
+  <si>
+    <t>QUEK TAI SEONG</t>
+  </si>
+  <si>
+    <t>MOHAMAD NOR SUNDARI</t>
+  </si>
+  <si>
+    <t>WAN RAZALI WAN NOR</t>
+  </si>
+  <si>
+    <t>FUZIAH SALLEH</t>
+  </si>
+  <si>
+    <t>AB HAMID MOHD NAZAHAR</t>
+  </si>
+  <si>
+    <t>ANUAR TAJUDDIN</t>
+  </si>
+  <si>
+    <t>INDERA MOHD SHAHAR ABDULLAH</t>
+  </si>
+  <si>
+    <t>AIREROSHAIRI ROSLAN</t>
+  </si>
+  <si>
+    <t>AHMAD AZAM MOHD SALLEH</t>
+  </si>
+  <si>
+    <t>ROSMINAHAR MOHD AMIN</t>
+  </si>
+  <si>
+    <t>SH MOHMED PUZI SH ALI</t>
+  </si>
+  <si>
+    <t>MOHD FADHIL NOOR</t>
+  </si>
+  <si>
+    <t>MOHD NAIM ZAINAL ABIDIN</t>
+  </si>
+  <si>
+    <t>MOHAMMAD RADHI ABDUL RAZAK</t>
+  </si>
+  <si>
+    <t>ZAINUL HISHAM TENGKU HUSSIN</t>
+  </si>
+  <si>
+    <t>ISMAIL ABD MUTTALIB</t>
+  </si>
+  <si>
+    <t>SHAHANIZA SHAMSUDDIN</t>
+  </si>
+  <si>
+    <t>AHMAD SHUHOR</t>
+  </si>
+  <si>
+    <t>HAFIZ</t>
+  </si>
+  <si>
+    <t>KAMAL ASHAARI</t>
+  </si>
+  <si>
+    <t>ISMAIL MOHAMED SAID</t>
+  </si>
+  <si>
+    <t>JUHARI OSMAN</t>
+  </si>
+  <si>
+    <t>SHAHRUDDIN MOHAMED SALLEH</t>
+  </si>
+  <si>
+    <t>SALAMIAH MOHD NOR</t>
+  </si>
+  <si>
+    <t>HASBIE MUDA</t>
+  </si>
+  <si>
+    <t>MOHD SHARKAR</t>
+  </si>
+  <si>
+    <t>AMINUDDIN YAHAYA</t>
+  </si>
+  <si>
+    <t>YOUNG SYEFURA OTHMAN</t>
+  </si>
+  <si>
+    <t>LIOW TIONG LAI</t>
+  </si>
+  <si>
+    <t>ROSLAN HASSAN</t>
+  </si>
+  <si>
+    <t>WONG TACK</t>
+  </si>
+  <si>
+    <t>MOHD KHALIL ABDUL HAMID (ACHIK KHALIL)</t>
+  </si>
+  <si>
+    <t>ISMAIL SABRI YAAKOB</t>
+  </si>
+  <si>
+    <t>ABAS AWANG</t>
+  </si>
+  <si>
+    <t>ASMAWI</t>
+  </si>
+  <si>
+    <t>KHALIB</t>
+  </si>
+  <si>
+    <t>HASAN ARIFIN</t>
+  </si>
+  <si>
+    <t>ERMAN SHAH</t>
+  </si>
+  <si>
+    <t>HAMIZI HUSSAIN</t>
+  </si>
+  <si>
+    <t>KALAM SALAN</t>
+  </si>
+  <si>
+    <t>ABD RAHMAN BAKRI</t>
+  </si>
+  <si>
+    <t>ARIF ISMAIL</t>
+  </si>
+  <si>
+    <t>EIZLAN YUSOF</t>
+  </si>
+  <si>
+    <t>MUSLIMIN YAHAYA</t>
+  </si>
+  <si>
+    <t>SAIPOLYZAN MAT YUSOP</t>
+  </si>
+  <si>
+    <t>JAMAL YUNOS</t>
+  </si>
+  <si>
+    <t>ASMAWAR SAMAT @ SAMAD</t>
+  </si>
+  <si>
+    <t>MOHD HASNIZAN HARUN</t>
+  </si>
+  <si>
+    <t>SATHIA PRAKASH NADARAJAN</t>
+  </si>
+  <si>
+    <t>MOHAN THANGARASU</t>
+  </si>
+  <si>
+    <t>HARUMAINI OMAR</t>
+  </si>
+  <si>
+    <t>HANIZA MOHAMED TALHA</t>
+  </si>
+  <si>
+    <t>AZLINDA BARONI</t>
+  </si>
+  <si>
+    <t>ZULKAFPHERI HANAFI</t>
+  </si>
+  <si>
+    <t>HABIBAH MOHD YUSOF</t>
+  </si>
+  <si>
+    <t>SITI RAHAYU BAHARIN</t>
+  </si>
+  <si>
+    <t>AZLAN SANI ZAWAWI (LANDO BROTHERHOOD)</t>
+  </si>
+  <si>
+    <t>MOHD ROSNI MASTOL</t>
+  </si>
+  <si>
+    <t>DZULKEFLY AHMAD</t>
+  </si>
+  <si>
+    <t>TENGKU ZAFRUL TENGKU ABDUL AZIZ</t>
+  </si>
+  <si>
+    <t>MOHD NOOR MOHD SAHAR</t>
+  </si>
+  <si>
+    <t>MOHD SHAID ROSLI</t>
+  </si>
+  <si>
+    <t>WILLIAM LEONG JEE KEEN</t>
+  </si>
+  <si>
+    <t>ABDUL RASHID ASARI</t>
+  </si>
+  <si>
+    <t>CHAN WUN HOONG</t>
+  </si>
+  <si>
+    <t>SALLEH AMIRUDDIN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ZAKI OMAR</t>
+  </si>
+  <si>
+    <t>AMIRUDIN SHARI</t>
+  </si>
+  <si>
+    <t>AZMIN ALI</t>
+  </si>
+  <si>
+    <t>MEGAT ZULKARNAIN OMARDIN</t>
+  </si>
+  <si>
+    <t>AZIZ JAMALUDIN</t>
+  </si>
+  <si>
+    <t>ZULKIFLI AHMAD</t>
+  </si>
+  <si>
+    <t>RODZIAH ISMAIL</t>
+  </si>
+  <si>
+    <t>SASHA LYNA ABDUL LATIF</t>
+  </si>
+  <si>
+    <t>IVONE LOW YI WEN</t>
+  </si>
+  <si>
+    <t>ZURAIDA KAMARUDDIN</t>
+  </si>
+  <si>
+    <t>NURUL ASHIKIN MABAHWI</t>
+  </si>
+  <si>
+    <t>BRYAN LAI WAI CHONG</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SHAFIQ IZWAN MOHD YUNOS</t>
+  </si>
+  <si>
+    <t>RAVEENDRAN MARNOKARAN</t>
+  </si>
+  <si>
+    <t>TAN HUA MENG</t>
+  </si>
+  <si>
+    <t>RAFIZI RAMLI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RAFIQUE ZUBIR ALBAKRI</t>
+  </si>
+  <si>
+    <t>LEONG KOK WEE</t>
+  </si>
+  <si>
+    <t>ONG TEE KEAT</t>
+  </si>
+  <si>
+    <t>NADIA HANAFIAH</t>
+  </si>
+  <si>
+    <t>MOHD SANY HAMZAN</t>
+  </si>
+  <si>
+    <t>MOHD RADZI ABD LATIFF</t>
+  </si>
+  <si>
+    <t>JOHAN ABD AZIZ</t>
+  </si>
+  <si>
+    <t>MARKIMAN KOBIRAN</t>
+  </si>
+  <si>
+    <t>ABDUL RAHMAN JAAFAR</t>
+  </si>
+  <si>
+    <t>MOHAMED MUSTAFA</t>
+  </si>
+  <si>
+    <t>SYAHREDZAN JOHAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NAZRUL MD NAZIR</t>
+  </si>
+  <si>
+    <t>HOH HEE LEE</t>
+  </si>
+  <si>
+    <t>ANNUAR SALLEH</t>
+  </si>
+  <si>
+    <t>CHEE CHEE MENG</t>
+  </si>
+  <si>
+    <t>JAMAL HISHAM HASHIM</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAUZI HASIM</t>
+  </si>
+  <si>
+    <t>SUTHAN MOOKAIAH</t>
+  </si>
+  <si>
+    <t>YEO BEE YIN</t>
+  </si>
+  <si>
+    <t>SYED IBRAHIM SYED ABU KADER</t>
+  </si>
+  <si>
+    <t>JIMMY CHEW JYH GANG</t>
+  </si>
+  <si>
+    <t>KUAN CHEE HENG (UNCLE KENTANG)</t>
+  </si>
+  <si>
+    <t>WONG CHEN</t>
+  </si>
+  <si>
+    <t>ALEX ANG HIANG NI</t>
+  </si>
+  <si>
+    <t>KOW CHEONG WEI</t>
+  </si>
+  <si>
+    <t>LEE CHEAN CHUNG</t>
+  </si>
+  <si>
+    <t>THENG BOOK</t>
+  </si>
+  <si>
+    <t>CHEW HIAN TAT</t>
+  </si>
+  <si>
+    <t>MAZWEEN MOKHTAR</t>
+  </si>
+  <si>
+    <t>EZAM MOHD NOR</t>
+  </si>
+  <si>
+    <t>K. J. JOHN</t>
+  </si>
+  <si>
+    <t>GOBIND SINGH DEO</t>
+  </si>
+  <si>
+    <t>LIM SI CHING</t>
+  </si>
+  <si>
+    <t>TAN GIM TUAN</t>
+  </si>
+  <si>
+    <t>RAMANAN RAMAKRISHNAN</t>
+  </si>
+  <si>
+    <t>KHAIRY JAMALUDDIN ABU BAKAR</t>
+  </si>
+  <si>
+    <t>MOHD GHAZALI MD HAMIN</t>
+  </si>
+  <si>
+    <t>MOHD AKMAL MOHD YUSOFF</t>
+  </si>
+  <si>
+    <t>AHMAD JUFLIZ FAIZA</t>
+  </si>
+  <si>
+    <t>SYED ABDUL RAZAK SYED LONG ALSAGOFF</t>
+  </si>
+  <si>
+    <t>NURHASLINDA BASRI (SIFU LINDA)</t>
+  </si>
+  <si>
+    <t>AZLI YUSOF</t>
+  </si>
+  <si>
+    <t>AFIF BAHARDIN</t>
+  </si>
+  <si>
+    <t>ISHAM JALIL</t>
+  </si>
+  <si>
+    <t>RAFIQUE RASHID</t>
+  </si>
+  <si>
+    <t>HALIMAH ALI</t>
+  </si>
+  <si>
+    <t>ABDULLAH SANI ABDUL HAMID</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NOOR AZMAN</t>
+  </si>
+  <si>
+    <t>DAROYAH ALWI</t>
+  </si>
+  <si>
+    <t>MOHD PATHAN HUSSIN</t>
+  </si>
+  <si>
+    <t>SIVALINGAM</t>
+  </si>
+  <si>
+    <t>RAHIM AWANG</t>
+  </si>
+  <si>
+    <t>GANABATIRAU VERAMAN</t>
+  </si>
+  <si>
+    <t>P. JAYA CHANDRAN</t>
+  </si>
+  <si>
+    <t>TEE HOOI LING</t>
+  </si>
+  <si>
+    <t>HEDRIN RAMLI @ AWIN</t>
+  </si>
+  <si>
+    <t>LOO CHENG WEE</t>
+  </si>
+  <si>
+    <t>DEEPAK JAIKISHAN</t>
+  </si>
+  <si>
+    <t>S. CHANDRASEGAR</t>
+  </si>
+  <si>
+    <t>MOHAMAD SABU</t>
+  </si>
+  <si>
+    <t>MOHAMED DIAH BAHRUN</t>
+  </si>
+  <si>
+    <t>D. KAJENDRAN</t>
+  </si>
+  <si>
+    <t>FAHMI RAZLAN</t>
+  </si>
+  <si>
+    <t>SARAH AFIQAH ZAINOL ARIF</t>
+  </si>
+  <si>
+    <t>P. RAVEENTHARAN</t>
+  </si>
+  <si>
+    <t>KUMAR KARANANEDI</t>
+  </si>
+  <si>
+    <t>S. SURENDHAR</t>
+  </si>
+  <si>
+    <t>AHMAD YUNUS HAIRI</t>
+  </si>
+  <si>
+    <t>MANIVANAN GOWIN</t>
+  </si>
+  <si>
+    <t>MOHANA MUNIANDY</t>
+  </si>
+  <si>
+    <t>MOHD RIDZUAN ABDULLAH</t>
+  </si>
+  <si>
+    <t>ZANARIAH JUMHURI</t>
+  </si>
+  <si>
+    <t>GANESKUMAR</t>
+  </si>
+  <si>
+    <t>RAJ MUNNI SABU (AIMAN ATHIRAH)</t>
+  </si>
+  <si>
+    <t>RINA MOHD HARUN</t>
+  </si>
+  <si>
+    <t>ANUAR BASIRAN</t>
+  </si>
+  <si>
+    <t>CHE ASMAH IBRAHIM</t>
+  </si>
+  <si>
+    <t>MOHD SYAHRUL AMRI MAT SARI</t>
+  </si>
+  <si>
+    <t>MOHD DAUD LEONG ABDULLAH</t>
+  </si>
+  <si>
+    <t>MUNESWARAN MUTHIAH</t>
+  </si>
+  <si>
+    <t>NAGESWARAN RAVI</t>
+  </si>
+  <si>
+    <t>LIM LIP ENG</t>
+  </si>
+  <si>
+    <t>YAP ZHENG HOE</t>
+  </si>
+  <si>
+    <t>PHAANG JING FAT</t>
+  </si>
+  <si>
+    <t>YEE POH PING</t>
+  </si>
+  <si>
+    <t>SHAUN YOUNG</t>
+  </si>
+  <si>
+    <t>PRABAKARAN PARAMESWARAN</t>
+  </si>
+  <si>
+    <t>AZHAR YAHYA</t>
+  </si>
+  <si>
+    <t>A KOHILAN PILLAY</t>
+  </si>
+  <si>
+    <t>TIAN CHUA</t>
+  </si>
+  <si>
+    <t>WAN AZLIANA</t>
+  </si>
+  <si>
+    <t>SITI KASIM</t>
+  </si>
+  <si>
+    <t>NUR FATHIAH SYAZWANA @ CLEO</t>
+  </si>
+  <si>
+    <t>NATHAN BATU</t>
+  </si>
+  <si>
+    <t>ZULKIFLI FATTAH</t>
+  </si>
+  <si>
+    <t>TOO GAO LAN</t>
+  </si>
+  <si>
+    <t>ZAHIR HASSAN</t>
+  </si>
+  <si>
+    <t>NURIDAH MOHD SALLEH</t>
+  </si>
+  <si>
+    <t>SHAFEI ABDULLAH</t>
+  </si>
+  <si>
+    <t>NORZAILA ARIFIN</t>
+  </si>
+  <si>
+    <t>WEE CHOO KEONG</t>
+  </si>
+  <si>
+    <t>RAVEE SUNTHERALINGAM</t>
+  </si>
+  <si>
+    <t>HANNAH YEOH</t>
+  </si>
+  <si>
+    <t>PRABAGARAN VYTHILINGAM</t>
+  </si>
+  <si>
+    <t>DANIEL LING SIA CHIN</t>
+  </si>
+  <si>
+    <t>NIK NAZMI NIK AHMAD</t>
+  </si>
+  <si>
+    <t>NURUL FADZILAH KAMALUDDIN</t>
+  </si>
+  <si>
+    <t>IZUDIN ISHAK</t>
+  </si>
+  <si>
+    <t>BIBI SUNITA SAKANDAR KHAN</t>
+  </si>
+  <si>
+    <t>MIOR ROSLI</t>
+  </si>
+  <si>
+    <t>STANLEY LIM YEN TIONG</t>
+  </si>
+  <si>
+    <t>JOHARI ABDUL GHANI</t>
+  </si>
+  <si>
+    <t>KHALID ABDUL SAMAD</t>
+  </si>
+  <si>
+    <t>ROSNI ADAM</t>
+  </si>
+  <si>
+    <t>KHAIRUDDIN ABU HASSAN</t>
+  </si>
+  <si>
+    <t>FONG KUI LUN</t>
+  </si>
+  <si>
+    <t>TAN TEIK PENG</t>
+  </si>
+  <si>
+    <t>EDWIN CHEN</t>
+  </si>
+  <si>
+    <t>AHMAD FAHMI MUHAMED FADZIL</t>
+  </si>
+  <si>
+    <t>RAMLAN SHAHEAN@ASKOLANI</t>
+  </si>
+  <si>
+    <t>FAUZI ABU BAKAR</t>
+  </si>
+  <si>
+    <t>ASMAH RAZALLI</t>
+  </si>
+  <si>
+    <t>TERESA KOK</t>
+  </si>
+  <si>
+    <t>WONG YEE YENG</t>
+  </si>
+  <si>
+    <t>LEE KAH HING</t>
+  </si>
+  <si>
+    <t>LEE WAI HONG</t>
+  </si>
+  <si>
+    <t>CHOY SAN YEH</t>
+  </si>
+  <si>
+    <t>TAN KOK WAI</t>
+  </si>
+  <si>
+    <t>RUBY CHIN YOKE KHENG</t>
+  </si>
+  <si>
+    <t>CHONG YEW CHUAN</t>
+  </si>
+  <si>
+    <t>WAN AZIZAH WAN ISMAIL</t>
+  </si>
+  <si>
+    <t>KAMARUDIN JAFFAR</t>
+  </si>
+  <si>
+    <t>CHEW YIN KEEN</t>
+  </si>
+  <si>
+    <t>RADZI JIDIN</t>
+  </si>
+  <si>
+    <t>TENGKU ADNAN TENGKU MANSOR</t>
+  </si>
+  <si>
+    <t>NORAISHAH MYDIN HAJI ABDUL AZIZ</t>
+  </si>
+  <si>
+    <t>MOHD ROSLI RAMLI</t>
+  </si>
+  <si>
+    <t>SAMSUDIN PKPKL</t>
+  </si>
+  <si>
+    <t>LIM FICE BEE</t>
+  </si>
+  <si>
+    <t>SUHAILI ABDUL RAHMAN</t>
+  </si>
+  <si>
+    <t>BASHIR ALIAS</t>
+  </si>
+  <si>
+    <t>ROZMAN ISLI</t>
+  </si>
+  <si>
+    <t>RAMLI TAHIR</t>
+  </si>
+  <si>
+    <t>DAYANG RUSIMAH</t>
+  </si>
+  <si>
+    <t>RAMLE MAT DALY</t>
+  </si>
+  <si>
+    <t>JALALUDDIN ALIAS</t>
+  </si>
+  <si>
+    <t>ZULKEFLY MOHD OMAR</t>
+  </si>
+  <si>
+    <t>ZAHARUDDIN BABA SAMION</t>
+  </si>
+  <si>
+    <t>AHMAD FAKRI ABU SAMAH</t>
+  </si>
+  <si>
+    <t>SHAMSHULKAHAR MOHD DELI</t>
+  </si>
+  <si>
+    <t>NORWANI AHMAT</t>
+  </si>
+  <si>
+    <t>AFFENDY SALLEH</t>
+  </si>
+  <si>
+    <t>KHALID YUNUS</t>
+  </si>
+  <si>
+    <t>ANTHONY LOKE SIEW FOOK</t>
+  </si>
+  <si>
+    <t>FADLI CHE ME</t>
+  </si>
+  <si>
+    <t>FELICIA WONG YIN TING</t>
+  </si>
+  <si>
+    <t>MOHAMAD JANI ISMAIL</t>
+  </si>
+  <si>
+    <t>IZZAT LESLY</t>
+  </si>
+  <si>
+    <t>ADNAN ABU HASSAN</t>
+  </si>
+  <si>
+    <t>NOR AZMAN MOHAMAD</t>
+  </si>
+  <si>
+    <t>EDDIN SYAZLEE SHITH</t>
+  </si>
+  <si>
+    <t>KAMARULZAMAN KAMDIAS</t>
+  </si>
+  <si>
+    <t>AZMAN IDRIS</t>
+  </si>
+  <si>
+    <t>CHA KEE CHIN</t>
+  </si>
+  <si>
+    <t>NG KIAN NAM</t>
+  </si>
+  <si>
+    <t>DAVID CHOONG</t>
+  </si>
+  <si>
+    <t>MOHAMAD HASAN (TOK MAT)</t>
+  </si>
+  <si>
+    <t>JUFITRI JOHA</t>
+  </si>
+  <si>
+    <t>MOHD NAZREE MOHD YUNUS</t>
+  </si>
+  <si>
+    <t>S. TINAGARAN</t>
+  </si>
+  <si>
+    <t>RAMLY AWALLUDIN</t>
+  </si>
+  <si>
+    <t>AMINUDDIN HARUN</t>
+  </si>
+  <si>
+    <t>P.KAMALANATHAN</t>
+  </si>
+  <si>
+    <t>RAFIEI MUSTAPHA</t>
+  </si>
+  <si>
+    <t>AHMAD IDHAM AHMAD NAZRI</t>
+  </si>
+  <si>
+    <t>ABDUL RANI KULUP</t>
+  </si>
+  <si>
+    <t>MOHD ISAM MOHD ISA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAIZ FADZIL</t>
+  </si>
+  <si>
+    <t>ABDUL HALIM ABU BAKAR</t>
+  </si>
+  <si>
+    <t>ZAMANI  IBRAHIM</t>
+  </si>
+  <si>
+    <t>MAS ERMIEYATI SAMSUDIN</t>
+  </si>
+  <si>
+    <t>ABDUL HAKIM ABDUL WAHID</t>
+  </si>
+  <si>
+    <t>MUTALIB UTHMAN</t>
+  </si>
+  <si>
+    <t>HANDRAWIRAWAN ABU BAKAR</t>
+  </si>
+  <si>
+    <t>ADLY ZAHARI</t>
+  </si>
+  <si>
+    <t>SHAHRIL SUFIAN HAMDAN</t>
+  </si>
+  <si>
+    <t>MOHD REDZUAN MD YUSOF (PAK WAN)</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NAZRIQ ABDUL RAHMAN</t>
+  </si>
+  <si>
+    <t>BAKRI JAMALUDDIN</t>
+  </si>
+  <si>
+    <t>RUSNAH ALUAI</t>
+  </si>
+  <si>
+    <t>LIM BAN HONG</t>
+  </si>
+  <si>
+    <t>GHAZALI ABU</t>
+  </si>
+  <si>
+    <t>SHAHRIL MAHMOOD</t>
+  </si>
+  <si>
+    <t>ADAM ADLI ABDUL HALIM</t>
+  </si>
+  <si>
+    <t>MOHD RIDHWAN MOHD ALI</t>
+  </si>
+  <si>
+    <t>MOHD AZRUDIN MD IDRIS</t>
+  </si>
+  <si>
+    <t>SHEIKH IKHZAN SHEIKH SALLEH</t>
+  </si>
+  <si>
+    <t>KHOO POAY TIONG</t>
+  </si>
+  <si>
+    <t>SUHAIME BORHAN</t>
+  </si>
+  <si>
+    <t>KON QI YAO</t>
+  </si>
+  <si>
+    <t>NORAZLANSHAH HAZALI</t>
+  </si>
+  <si>
+    <t>ZULKIFLI ISMAIL</t>
+  </si>
+  <si>
+    <t>ROSLAN AHMAD</t>
+  </si>
+  <si>
+    <t>HARUN MOHAMED</t>
+  </si>
+  <si>
+    <t>MOHD DAUD NASIR</t>
+  </si>
+  <si>
+    <t>YUNESWARAN RAMARAJ</t>
+  </si>
+  <si>
+    <t>RAMASAMY MUTHUSAMY</t>
+  </si>
+  <si>
+    <t>POOBALAN PONNUSAMY</t>
+  </si>
+  <si>
+    <t>SYED HAIROUL FAIZEY SYED ALI</t>
+  </si>
+  <si>
+    <t>ZALIHA MUSTAFA</t>
+  </si>
+  <si>
+    <t>MD SALLEHEEN MOHAMAD</t>
+  </si>
+  <si>
+    <t>UZZAIR ISMAIL</t>
+  </si>
+  <si>
+    <t>MOHD ZOHAR AHMAD</t>
+  </si>
+  <si>
+    <t>MOHD SAIFUL FAIZAL ABD HALIM</t>
+  </si>
+  <si>
+    <t>PANG HOK LIONG</t>
+  </si>
+  <si>
+    <t>CHUA TEE YONG</t>
+  </si>
+  <si>
+    <t>ALVIN CHANG TECK KIAM</t>
+  </si>
+  <si>
+    <t>MAHIADDIN MD YASIN (MUHYIDDIN MD YASIN)</t>
+  </si>
+  <si>
+    <t>ISKANDAR SHAH ABD RAHMAN</t>
+  </si>
+  <si>
+    <t>RAZALI IBRAHIM</t>
+  </si>
+  <si>
+    <t>SYED IBRAHIM SYED NOR</t>
+  </si>
+  <si>
+    <t>HAMIM SAMURI</t>
+  </si>
+  <si>
+    <t>ZAIDI HJ MAJID</t>
+  </si>
+  <si>
+    <t>RAFIDAH RIDWAN</t>
+  </si>
+  <si>
+    <t>YUNUS MUSTAKIM</t>
+  </si>
+  <si>
+    <t>ZAINAL BAHROM</t>
+  </si>
+  <si>
+    <t>TAN HONG PIN</t>
+  </si>
+  <si>
+    <t>LEE CHING YONG</t>
+  </si>
+  <si>
+    <t>CHELVARAJAN R. SUPPIAH</t>
+  </si>
+  <si>
+    <t>HARON JAAFAR</t>
+  </si>
+  <si>
+    <t>SYED SADDIQ SYED ABDUL RAHMAN</t>
+  </si>
+  <si>
+    <t>USTAZ ABDULLAH HUSIN</t>
+  </si>
+  <si>
+    <t>MOHD HELMY ABD LATIF</t>
+  </si>
+  <si>
+    <t>NORAINI AHMAD</t>
+  </si>
+  <si>
+    <t>ABDUL KARIM DERAMAN</t>
+  </si>
+  <si>
+    <t>MOHD FAIZAL DOLLAH</t>
+  </si>
+  <si>
+    <t>WEE KA SIONG</t>
+  </si>
+  <si>
+    <t>SHEIKH UMAR BAGHARIB ALI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SYAFIQ A. AZIZ</t>
+  </si>
+  <si>
+    <t>AMINOLHUDA HASSAN (CIKGU HUDA)</t>
+  </si>
+  <si>
+    <t>MOHD LASSIM BURHAN</t>
+  </si>
+  <si>
+    <t>ZANARIYAH ABDUL HAMID</t>
+  </si>
+  <si>
+    <t>MAHDZIR IBRAHIM</t>
+  </si>
+  <si>
+    <t>ONN ABU BAKAR</t>
+  </si>
+  <si>
+    <t>MOHD RASHID HASNON</t>
+  </si>
+  <si>
+    <t>ISHAK MOHD FARID SIRAJ</t>
+  </si>
+  <si>
+    <t>NIZAM BASHIR</t>
+  </si>
+  <si>
+    <t>ZAHARI OSMAN</t>
+  </si>
+  <si>
+    <t>HASNI MOHAMMAD</t>
+  </si>
+  <si>
+    <t>MASZLEE MALIK</t>
+  </si>
+  <si>
+    <t>FAZRUL KAMAT</t>
+  </si>
+  <si>
+    <t>KAMAL KUSMIN</t>
+  </si>
+  <si>
+    <t>WONG SHU QI</t>
+  </si>
+  <si>
+    <t>GAN PING SIEU</t>
+  </si>
+  <si>
+    <t>DZULKARNAIN ALIAS</t>
+  </si>
+  <si>
+    <t>RAMENDRAN ULAGANATHAN</t>
+  </si>
+  <si>
+    <t>HISHAMMUDDIN HUSSEIN</t>
+  </si>
+  <si>
+    <t>HASNI ABAS</t>
+  </si>
+  <si>
+    <t>AZIZ ISMAIL (JOE AZIZ)</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ISLAHUDDIN ABAS</t>
+  </si>
+  <si>
+    <t>ABD LATIF BANDI NOR SEBANDI</t>
+  </si>
+  <si>
+    <t>FATIN ZULAIKHA ZAIDI</t>
+  </si>
+  <si>
+    <t>NURFATIMAH IBRAHIM</t>
+  </si>
+  <si>
+    <t>ISMAIL DON</t>
+  </si>
+  <si>
+    <t>MANNDZRI NASIB</t>
+  </si>
+  <si>
+    <t>MOHD NAZARI MOKHTAR</t>
+  </si>
+  <si>
+    <t>ZURAIDAH ZAINAB MOHD ZAIN</t>
+  </si>
+  <si>
+    <t>AZHAR PALAL</t>
+  </si>
+  <si>
+    <t>KHALED NORDIN (MOHAMED KHALED NORDIN)</t>
+  </si>
+  <si>
+    <t>RIDHWAN RASMAN</t>
+  </si>
+  <si>
+    <t>ONN JAAFAR</t>
+  </si>
+  <si>
+    <t>AZALINA OTHMAN SAID</t>
+  </si>
+  <si>
+    <t>FAIRULNIZAR RAHMAT (CIKGU IMAM NIZAR)</t>
+  </si>
+  <si>
+    <t>CHE ZAKARIA MOHD SALLEH</t>
+  </si>
+  <si>
+    <t>JIMMY PUAH WEE TSE</t>
+  </si>
+  <si>
+    <t>MOHAMAD ISA MOHAMAD BASIR</t>
+  </si>
+  <si>
+    <t>NICOLE WONG SIAW TING</t>
+  </si>
+  <si>
+    <t>HASSAN ABDUL KARIM</t>
+  </si>
+  <si>
+    <t>MOHAMAD FARID ABDUL RAZAK</t>
+  </si>
+  <si>
+    <t>NOOR AZLEEN AMBROS</t>
+  </si>
+  <si>
+    <t>MOHAMMAD RAFFI BERAN</t>
+  </si>
+  <si>
+    <t>AKMAL NASRULLAH MOHD NASIR</t>
+  </si>
+  <si>
+    <t>JOHAN ARIFIN MOHD ROPI</t>
+  </si>
+  <si>
+    <t>MOHD MOHTAJ YACOB</t>
+  </si>
+  <si>
+    <t>MOHD AKHIRI MAHMOOD (HAIRY MAHMOOD)</t>
+  </si>
+  <si>
+    <t>SALAHUDDIN AYUB</t>
+  </si>
+  <si>
+    <t>NUR JAZLAN MOHAMED</t>
+  </si>
+  <si>
+    <t>LOH KAH YONG</t>
+  </si>
+  <si>
+    <t>LIEW CHIN TONG</t>
+  </si>
+  <si>
+    <t>JASON TEOH SEW HOCK</t>
+  </si>
+  <si>
+    <t>JASHEN TAN NAM CHA</t>
+  </si>
+  <si>
+    <t>TEO NIE CHING</t>
+  </si>
+  <si>
+    <t>CHUA JIAN BOON</t>
+  </si>
+  <si>
+    <t>TAN CHIN HOK</t>
+  </si>
+  <si>
+    <t>AHMAD MASLAN</t>
+  </si>
+  <si>
+    <t>ISA AB HAMID</t>
+  </si>
+  <si>
+    <t>SHAZWAN ZDAINAL ABIDIN</t>
+  </si>
+  <si>
+    <t>JAMALUDDIN MOHAMAD</t>
+  </si>
+  <si>
+    <t>WEE JECK SENG</t>
+  </si>
+  <si>
+    <t>LIM WEI JIET</t>
+  </si>
+  <si>
+    <t>NAJWAH HALIMAH AB ALIM</t>
+  </si>
+  <si>
+    <t>VERDON BAHANDA</t>
+  </si>
+  <si>
+    <t>RUDDY AWAH</t>
+  </si>
+  <si>
+    <t>RASHID ABDUL HARUN</t>
+  </si>
+  <si>
+    <t>THONNY CHEE</t>
+  </si>
+  <si>
+    <t>PETRONELLA USUN</t>
+  </si>
+  <si>
+    <t>WETROM BAHANDA</t>
+  </si>
+  <si>
+    <t>MAXIMUS@JOHNITY ONGKILI</t>
+  </si>
+  <si>
+    <t>ZAINUDDIN KUMINDING</t>
+  </si>
+  <si>
+    <t>SHARIZAL DENCI</t>
+  </si>
+  <si>
+    <t>NORMAN TULANG</t>
+  </si>
+  <si>
+    <t>MOHD AZMI ZULKIFLEE</t>
+  </si>
+  <si>
+    <t>MUNIRAH MAJILIS</t>
+  </si>
+  <si>
+    <t>ABD RAHMAN DAHLAN</t>
+  </si>
+  <si>
+    <t>MADELI @ MODILY BANGALI</t>
+  </si>
+  <si>
+    <t>MADIUS TANGAU</t>
+  </si>
+  <si>
+    <t>JONISTON BANGKUAI</t>
+  </si>
+  <si>
+    <t>ANNA SUE HENLEY RAMPAS</t>
+  </si>
+  <si>
+    <t>NOORTAIP SUHAILI @ SUALEE</t>
+  </si>
+  <si>
+    <t>MUMININ NORBINSHA</t>
+  </si>
+  <si>
+    <t>BOBY LEWAT</t>
+  </si>
+  <si>
+    <t>MUSTAPHA SAKMUD</t>
+  </si>
+  <si>
+    <t>YAKUB KHAN</t>
+  </si>
+  <si>
+    <t>MOHD AZIS</t>
+  </si>
+  <si>
+    <t>JUMARDIE LUKMAN</t>
+  </si>
+  <si>
+    <t>YUSOF KUNCHANG</t>
+  </si>
+  <si>
+    <t>CHAN FOONG HIN</t>
+  </si>
+  <si>
+    <t>YEO YAN YIN @ AMANDA</t>
+  </si>
+  <si>
+    <t>YEE TSAI YIEW</t>
+  </si>
+  <si>
+    <t>WINSTON LIAW KIT SIONG</t>
+  </si>
+  <si>
+    <t>MARCEL JUDE</t>
+  </si>
+  <si>
+    <t>SHAHELMEY YAHYA</t>
+  </si>
+  <si>
+    <t>AWANG HUSAINI SAHARI</t>
+  </si>
+  <si>
+    <t>AHMAD MOHD SAID</t>
+  </si>
+  <si>
+    <t>POYNE B. TUDUS @ PATRICK PAYNE</t>
+  </si>
+  <si>
+    <t>EWON BENEDICK</t>
+  </si>
+  <si>
+    <t>DARELL LEIKING</t>
+  </si>
+  <si>
+    <t>KENNY CHUA TECK HO</t>
+  </si>
+  <si>
+    <t>RICHARD JIMMY</t>
+  </si>
+  <si>
+    <t>ARMIZAN MOHD ALI</t>
+  </si>
+  <si>
+    <t>AHMAD HASSAN</t>
+  </si>
+  <si>
+    <t>HENRY SHIM</t>
+  </si>
+  <si>
+    <t>NICHOLAS SYLVESTER @ BERRY</t>
+  </si>
+  <si>
+    <t>JOHNNY SITAMIN</t>
+  </si>
+  <si>
+    <t>NORBERT CHIN</t>
+  </si>
+  <si>
+    <t>MOHAMAD ALAMIN</t>
+  </si>
+  <si>
+    <t>DAUD YUSOF</t>
+  </si>
+  <si>
+    <t>AMAT MD YUSOF</t>
+  </si>
+  <si>
+    <t>ROWINDY LAWRENCE ODONG</t>
+  </si>
+  <si>
+    <t>YUSOP OSMAN</t>
+  </si>
+  <si>
+    <t>SITI AMINAH ACHING</t>
+  </si>
+  <si>
+    <t>JOHAIR MAT LANI</t>
+  </si>
+  <si>
+    <t>DIKIN MUSAH</t>
+  </si>
+  <si>
+    <t>MASRI ADUL</t>
+  </si>
+  <si>
+    <t>JOHAN @ CHRISTOPHER O T GHANI</t>
+  </si>
+  <si>
+    <t>MATLANI SABLI</t>
+  </si>
+  <si>
+    <t>MATBALI MUSAH</t>
+  </si>
+  <si>
+    <t>ADNAN OKK PUTEH</t>
+  </si>
+  <si>
+    <t>LAHIRUL LATIGUL</t>
+  </si>
+  <si>
+    <t>JONATHAN YASIN</t>
+  </si>
+  <si>
+    <t>TAUFIK DAHLAN</t>
+  </si>
+  <si>
+    <t>EWON EBIN</t>
+  </si>
+  <si>
+    <t>MARKOS SITON</t>
+  </si>
+  <si>
+    <t>AZIZUL JULIRIN</t>
+  </si>
+  <si>
+    <t>JEFFREY GAPARI KITINGAN</t>
+  </si>
+  <si>
+    <t>GRELYDIA GILLOD</t>
+  </si>
+  <si>
+    <t>JAKE NOINTIN</t>
+  </si>
+  <si>
+    <t>RASININ KOUTIS @ KAUTIS</t>
+  </si>
+  <si>
+    <t>RIDUAN RUBIN</t>
+  </si>
+  <si>
+    <t>NOORITA SUAL</t>
+  </si>
+  <si>
+    <t>AFAR</t>
+  </si>
+  <si>
+    <t>UKIM BUANDI</t>
+  </si>
+  <si>
+    <t>PEGGY CHAW ZHI TING</t>
+  </si>
+  <si>
+    <t>ARTHUR JOSEPH KURUP</t>
+  </si>
+  <si>
+    <t>SANGKAR RASAM</t>
+  </si>
+  <si>
+    <t>JEKERISON KILAN</t>
+  </si>
+  <si>
+    <t>SITI NOORHASMAHWATTY OSMAN</t>
+  </si>
+  <si>
+    <t>JAMANI DERIMIN</t>
+  </si>
+  <si>
+    <t>RONALD KIANDEE</t>
+  </si>
+  <si>
+    <t>BENEDICT ASMAT</t>
+  </si>
+  <si>
+    <t>FELIX JOSEPH SAANG</t>
+  </si>
+  <si>
+    <t>ROWIENA RASID</t>
+  </si>
+  <si>
+    <t>HAUSING SAMSUDIN @ SUDIN</t>
+  </si>
+  <si>
+    <t>SUHAIMI NASIR</t>
+  </si>
+  <si>
+    <t>PETER JR NAINTIN</t>
+  </si>
+  <si>
+    <t>SHARIF BOKRATA</t>
+  </si>
+  <si>
+    <t>JEFFRI @ AMAT PUDANG</t>
+  </si>
+  <si>
+    <t>AMDAN TUMPONG</t>
+  </si>
+  <si>
+    <t>NORDIN KHANI</t>
+  </si>
+  <si>
+    <t>KHAIRUL FIRDAUS AKBAR KHAN</t>
+  </si>
+  <si>
+    <t>LIAU FUI FUI</t>
+  </si>
+  <si>
+    <t>ALIAS SANI</t>
+  </si>
+  <si>
+    <t>BONI YUSUF JUANICO ABDULLAH</t>
+  </si>
+  <si>
+    <t>OTHMAN AHMAD</t>
+  </si>
+  <si>
+    <t>VIVIAN WONG SHIR YEE</t>
+  </si>
+  <si>
+    <t>ALEX THIEN</t>
+  </si>
+  <si>
+    <t>LAU CHI KEONG @ THOMAS LAU</t>
+  </si>
+  <si>
+    <t>PETER HII</t>
+  </si>
+  <si>
+    <t>SYEIKH LOKEMAN</t>
+  </si>
+  <si>
+    <t>HAJJAH LITA TAN ABDULLAH</t>
+  </si>
+  <si>
+    <t>BUNG MOKTAR RADIN</t>
+  </si>
+  <si>
+    <t>MAZLIWATI ABDUL MALEK</t>
+  </si>
+  <si>
+    <t>MOHAMMAD YUSOF APDAL</t>
+  </si>
+  <si>
+    <t>MAIZATUL AKMAM ALAWI</t>
+  </si>
+  <si>
+    <t>SIA YU HOCK</t>
+  </si>
+  <si>
+    <t>MOHD SHAFIE APDAL</t>
+  </si>
+  <si>
+    <t>NIXON ABDUL HABI</t>
+  </si>
+  <si>
+    <t>ARASTAM PANDOROG</t>
+  </si>
+  <si>
+    <t>AB RAJIK AB HAMID</t>
+  </si>
+  <si>
+    <t>LO SU FUI</t>
+  </si>
+  <si>
+    <t>LIEW CHIN JIN</t>
+  </si>
+  <si>
+    <t>KC CHEN KET CHUIN</t>
+  </si>
+  <si>
+    <t>SALLEH BACHO</t>
+  </si>
+  <si>
+    <t>HERMAN AMDAS</t>
+  </si>
+  <si>
+    <t>CHIN CHEE SYN</t>
+  </si>
+  <si>
+    <t>ANDI MUHAMMAD SURYADY BANDY</t>
+  </si>
+  <si>
+    <t>MUN SULAIMAN</t>
+  </si>
+  <si>
+    <t>NORAINI ABD GHAPUR</t>
+  </si>
+  <si>
+    <t>NUR AINI ABD RAHMAN</t>
+  </si>
+  <si>
+    <t>MUHAMAD</t>
+  </si>
+  <si>
+    <t>MORDI BIMOL</t>
+  </si>
+  <si>
+    <t>LIDANG DISEN</t>
+  </si>
+  <si>
+    <t>RYAN SIM MIN LEONG</t>
+  </si>
+  <si>
+    <t>NANCY SHUKRI</t>
+  </si>
+  <si>
+    <t>MOHAMAD ZEN PELI</t>
+  </si>
+  <si>
+    <t>AFFENDI JEMAN</t>
+  </si>
+  <si>
+    <t>FADILLAH YUSOF</t>
+  </si>
+  <si>
+    <t>SOPIAN JULAIHI</t>
+  </si>
+  <si>
+    <t>OTHMAN ABDILLAH</t>
+  </si>
+  <si>
+    <t>KELVIN YII LEE WUEN</t>
+  </si>
+  <si>
+    <t>TAY TZE KOK</t>
+  </si>
+  <si>
+    <t>VOON LEE SHAN</t>
+  </si>
+  <si>
+    <t>CHONG CHIENG JEN</t>
+  </si>
+  <si>
+    <t>LO KHERE CHIANG</t>
+  </si>
+  <si>
+    <t>LUE CHENG HING</t>
+  </si>
+  <si>
+    <t>RUBIAH WANG</t>
+  </si>
+  <si>
+    <t>ABANG ABDUL HALIL ABANG NAILI</t>
+  </si>
+  <si>
+    <t>WILLIE MONGIN</t>
+  </si>
+  <si>
+    <t>DIOG DIOS</t>
+  </si>
+  <si>
+    <t>IANA AKAM</t>
+  </si>
+  <si>
+    <t>RICHARD RIOT JAEM</t>
+  </si>
+  <si>
+    <t>ALIM IMPIRA</t>
+  </si>
+  <si>
+    <t>ELSIY TINGANG</t>
+  </si>
+  <si>
+    <t>LEARRY JABUL</t>
+  </si>
+  <si>
+    <t>RODIYAH SAPIEE</t>
+  </si>
+  <si>
+    <t>LAHAJI LAHIYA</t>
+  </si>
+  <si>
+    <t>MOHAMAD SHAFIZAN (KEPLI)</t>
+  </si>
+  <si>
+    <t>HAMDAN SANI</t>
+  </si>
+  <si>
+    <t>WEL @ MAXWEL ROJIS</t>
+  </si>
+  <si>
+    <t>DORIS SOPHIA BRODI</t>
+  </si>
+  <si>
+    <t>WILSON ENTABANG</t>
+  </si>
+  <si>
+    <t>MASIR KUJAT</t>
+  </si>
+  <si>
+    <t>NAGA LIBAU @TAY</t>
+  </si>
+  <si>
+    <t>ROY ANGAU GINGKOI</t>
+  </si>
+  <si>
+    <t>JOHNICHAL RAYONG NGIPA</t>
+  </si>
+  <si>
+    <t>JUGAH MUYANG</t>
+  </si>
+  <si>
+    <t>LANGGA LIAS</t>
+  </si>
+  <si>
+    <t>RICHARD RAPU</t>
+  </si>
+  <si>
+    <t>PATRICK KAMIS @ KAMENG</t>
+  </si>
+  <si>
+    <t>HASBIE SATAR</t>
+  </si>
+  <si>
+    <t>ALI BIJU</t>
+  </si>
+  <si>
+    <t>GIENDAM JONATHAN TAIT</t>
+  </si>
+  <si>
+    <t>IBIL JAYA</t>
+  </si>
+  <si>
+    <t>YUSUF WAHAB</t>
+  </si>
+  <si>
+    <t>ZAINAB SUHAILI</t>
+  </si>
+  <si>
+    <t>AHMAD JOHNIE ZAWAWI</t>
+  </si>
+  <si>
+    <t>HUD ANDRI</t>
+  </si>
+  <si>
+    <t>HUANG TIONG SII</t>
+  </si>
+  <si>
+    <t>RODERICK WONG SIEW LEAD</t>
+  </si>
+  <si>
+    <t>LARRY SOON @ LARRY SNG WEI SHIEN</t>
+  </si>
+  <si>
+    <t>JOSEPH SALANG GANDUM</t>
+  </si>
+  <si>
+    <t>ELLY LAWAI</t>
+  </si>
+  <si>
+    <t>SUSAN GEORGE</t>
+  </si>
+  <si>
+    <t>AARON AGO DAGANG</t>
+  </si>
+  <si>
+    <t>MOHD FAUZI ABDULLAH (JOSEPH NYAMBONG)</t>
+  </si>
+  <si>
+    <t>MICHAEL LIAS</t>
+  </si>
+  <si>
+    <t>GEORGE CHEN NYUK FA</t>
+  </si>
+  <si>
+    <t>ELLI LUHAT</t>
+  </si>
+  <si>
+    <t>ALICE LAU KIONG YIENG</t>
+  </si>
+  <si>
+    <t>WONG CHING YONG</t>
+  </si>
+  <si>
+    <t>PRISCILLA LAU</t>
+  </si>
+  <si>
+    <t>WONG TIING KIONG</t>
+  </si>
+  <si>
+    <t>OSCAR LING CHAI YEW</t>
+  </si>
+  <si>
+    <t>CLARENCE TING ING HORH</t>
+  </si>
+  <si>
+    <t>WONG SOON KOH</t>
+  </si>
+  <si>
+    <t>HANIFAH HAJAR TAIB</t>
+  </si>
+  <si>
+    <t>ABDUL JALILL BUJANG</t>
+  </si>
+  <si>
+    <t>EDWIN BANTA</t>
+  </si>
+  <si>
+    <t>UMPANG SABANG</t>
+  </si>
+  <si>
+    <t>HENRY JOSEPH USAU</t>
+  </si>
+  <si>
+    <t>ALEXANDER NANTA LINGGI</t>
+  </si>
+  <si>
+    <t>KHUSYAIRY PANGKAS @ PANGKAS ANAK UNGGANG</t>
+  </si>
+  <si>
+    <t>ROBERT SAWENG</t>
+  </si>
+  <si>
+    <t>UGAK KUMBONG</t>
+  </si>
+  <si>
+    <t>ABUN SUI ANYIT</t>
+  </si>
+  <si>
+    <t>TIONG KING SING</t>
+  </si>
+  <si>
+    <t>CHIEW CHAN YEW</t>
+  </si>
+  <si>
+    <t>DUKE JANTENG</t>
+  </si>
+  <si>
+    <t>LUKANISMAN AWANG SAUNI</t>
+  </si>
+  <si>
+    <t>ZULHAIDAH SUBOH</t>
+  </si>
+  <si>
+    <t>BOBBY WILLIAM</t>
+  </si>
+  <si>
+    <t>CHIEW CHOON MAN</t>
+  </si>
+  <si>
+    <t>JEFFERY PHANG</t>
+  </si>
+  <si>
+    <t>LAWRENCE LAI</t>
+  </si>
+  <si>
+    <t>HASBI HABIBOLLAH</t>
+  </si>
+  <si>
+    <t>RACHA BALANG</t>
+  </si>
+  <si>
+    <t>HENRY SUM AGONG</t>
+  </si>
+  <si>
+    <t>BARU BIAN</t>
+  </si>
+  <si>
+    <t>JAPAR SUYUT</t>
   </si>
   <si>
     <t>PN - PAS</t>
